--- a/RavencoinIPFS Translator Worksheet.xlsx
+++ b/RavencoinIPFS Translator Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/987d59543b16712b/Documents/GitHub/RavencoinIPFS-Translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B5B71B67-1BC5-41C4-AA28-4F7B17FF92DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C77B1E9-2929-46B7-AE01-BA4CBC8CB52F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B5B71B67-1BC5-41C4-AA28-4F7B17FF92DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3B0A7F99-ACA4-43A2-BCEE-D02CA18F041F}"/>
   <bookViews>
-    <workbookView xWindow="30804" yWindow="3252" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13652,21 +13652,12 @@
     <t>Finnish</t>
   </si>
   <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>Premier mois gratuit</t>
   </si>
   <si>
     <t>Puissance</t>
   </si>
   <si>
-    <t>Espace plus important sur demande</t>
-  </si>
-  <si>
     <t>Entrez le code de confirmation</t>
   </si>
   <si>
@@ -13788,9 +13779,6 @@
     <t>Se déconnecter</t>
   </si>
   <si>
-    <t>Actualiser</t>
-  </si>
-  <si>
     <t>A propos</t>
   </si>
   <si>
@@ -13824,12 +13812,6 @@
     <t>Ce mél est déjà utilisé,</t>
   </si>
   <si>
-    <t>Voulez-vous chiffrer ce fichier ?</t>
-  </si>
-  <si>
-    <t>Attention ! Ce fichier fait 10 MB.</t>
-  </si>
-  <si>
     <t>Chiffrer des fichiers de taille importante peut prendre plusieur minutes. Voulez-vous continuer ?</t>
   </si>
   <si>
@@ -13929,12 +13911,6 @@
     <t>Votre compte est temporairement limité à 100 mb.  Ce fichier vous fait dépasser cette limite.  Veuillez effectuer un paiement pour activer votre niveau.</t>
   </si>
   <si>
-    <t>Renouvellement de 30 jours</t>
-  </si>
-  <si>
-    <t>Sélectionnez un niveau pour continuer</t>
-  </si>
-  <si>
     <t>Mise à jour complête</t>
   </si>
   <si>
@@ -13977,9 +13953,6 @@
     <t>Glisser-déposer les fichiers dans les dossiers ou la corbeille</t>
   </si>
   <si>
-    <t>Déposer des fichiers à ajouter à IPFS</t>
-  </si>
-  <si>
     <t>Rechercher pour filtrer les fichiers par nom</t>
   </si>
   <si>
@@ -14260,6 +14233,54 @@
   </si>
   <si>
     <t>S'inscrire</t>
+  </si>
+  <si>
+    <t>Français New</t>
+  </si>
+  <si>
+    <t>Basique</t>
+  </si>
+  <si>
+    <t>Espace de stockage plus important sur demande</t>
+  </si>
+  <si>
+    <t>Modifier l'abonnement</t>
+  </si>
+  <si>
+    <t>Voulez-vous chiffrer le fichier ?</t>
+  </si>
+  <si>
+    <t>Renouvellement tout les 30 jours</t>
+  </si>
+  <si>
+    <t>Sélectionnez un niveau d'abonnement pour continuer</t>
+  </si>
+  <si>
+    <t>Déposer des fichiers à ajouter sur IPFS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attention ! Ce fichier fait </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MB.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14457,7 +14478,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14546,10 +14567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -14776,8 +14793,8 @@
   </sheetPr>
   <dimension ref="A1:U1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -14787,7 +14804,7 @@
     <col min="3" max="3" width="25.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="25.6640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="30" customWidth="1"/>
     <col min="8" max="11" width="20.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14811,7 +14828,7 @@
         <v>643</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>801</v>
+        <v>921</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>797</v>
@@ -14846,7 +14863,7 @@
         <v>623</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>802</v>
+        <v>922</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -14957,7 +14974,7 @@
         <v>523</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -14994,7 +15011,7 @@
         <v>624</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -15327,7 +15344,7 @@
         <v>524</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>805</v>
+        <v>923</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -15364,7 +15381,7 @@
         <v>525</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -15383,7 +15400,7 @@
     </row>
     <row r="17" spans="1:21" ht="66">
       <c r="A17" s="14" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>292</v>
@@ -15401,7 +15418,7 @@
         <v>762</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -15438,7 +15455,7 @@
         <v>526</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -15475,7 +15492,7 @@
         <v>527</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -15512,7 +15529,7 @@
         <v>528</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -15549,7 +15566,7 @@
         <v>529</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -15586,7 +15603,7 @@
         <v>530</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -15623,7 +15640,7 @@
         <v>531</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -15660,7 +15677,7 @@
         <v>532</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -15697,7 +15714,7 @@
         <v>533</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -15734,7 +15751,7 @@
         <v>534</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -15771,7 +15788,7 @@
         <v>535</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -15808,7 +15825,7 @@
         <v>536</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -15845,7 +15862,7 @@
         <v>627</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -15882,7 +15899,7 @@
         <v>537</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -15919,7 +15936,7 @@
         <v>628</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -15956,7 +15973,7 @@
         <v>538</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -15993,7 +16010,7 @@
         <v>539</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -16030,7 +16047,7 @@
         <v>629</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -16067,7 +16084,7 @@
         <v>540</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -16104,7 +16121,7 @@
         <v>541</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -16141,7 +16158,7 @@
         <v>542</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -16178,7 +16195,7 @@
         <v>543</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -16215,7 +16232,7 @@
         <v>544</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -16252,7 +16269,7 @@
         <v>630</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -16289,7 +16306,7 @@
         <v>545</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -16326,7 +16343,7 @@
         <v>546</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -16363,7 +16380,7 @@
         <v>547</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -16400,7 +16417,7 @@
         <v>548</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -16437,7 +16454,7 @@
         <v>764</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -16474,7 +16491,7 @@
         <v>549</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -16585,7 +16602,7 @@
         <v>631</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -16622,7 +16639,7 @@
         <v>550</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -16659,7 +16676,7 @@
         <v>551</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -16696,7 +16713,7 @@
         <v>766</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -16733,7 +16750,7 @@
         <v>552</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -16770,7 +16787,7 @@
         <v>553</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -16807,7 +16824,7 @@
         <v>554</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>840</v>
+        <v>924</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -16844,7 +16861,7 @@
         <v>555</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -16881,7 +16898,7 @@
         <v>556</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -16918,7 +16935,7 @@
         <v>557</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -16955,7 +16972,7 @@
         <v>555</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -16992,7 +17009,7 @@
         <v>632</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -17029,7 +17046,7 @@
         <v>558</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -17066,7 +17083,7 @@
         <v>559</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -17103,7 +17120,7 @@
         <v>560</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -17140,7 +17157,7 @@
         <v>561</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -17177,7 +17194,7 @@
         <v>562</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -17214,7 +17231,7 @@
         <v>769</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -17251,7 +17268,7 @@
         <v>770</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -17288,7 +17305,7 @@
         <v>563</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -17325,7 +17342,7 @@
         <v>564</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -17362,7 +17379,7 @@
         <v>565</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -17399,7 +17416,7 @@
         <v>566</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>852</v>
+        <v>925</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -17436,7 +17453,7 @@
         <v>771</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>853</v>
+        <v>929</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -17473,7 +17490,7 @@
         <v>567</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -17510,7 +17527,7 @@
         <v>633</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -17547,7 +17564,7 @@
         <v>568</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -17584,7 +17601,7 @@
         <v>773</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -17621,7 +17638,7 @@
         <v>569</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -17658,7 +17675,7 @@
         <v>570</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -17695,7 +17712,7 @@
         <v>571</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -17732,7 +17749,7 @@
         <v>572</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -17769,7 +17786,7 @@
         <v>573</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -17806,7 +17823,7 @@
         <v>574</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -17843,7 +17860,7 @@
         <v>634</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -17880,7 +17897,7 @@
         <v>575</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -17917,7 +17934,7 @@
         <v>576</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -17954,7 +17971,7 @@
         <v>577</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -17991,7 +18008,7 @@
         <v>578</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -18028,7 +18045,7 @@
         <v>579</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -18065,7 +18082,7 @@
         <v>580</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -18102,7 +18119,7 @@
         <v>581</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -18139,7 +18156,7 @@
         <v>582</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -18176,7 +18193,7 @@
         <v>583</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -18213,7 +18230,7 @@
         <v>584</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -18250,7 +18267,7 @@
         <v>585</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -18287,7 +18304,7 @@
         <v>775</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
@@ -18324,7 +18341,7 @@
         <v>586</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -18361,7 +18378,7 @@
         <v>587</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -18398,7 +18415,7 @@
         <v>588</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -18435,7 +18452,7 @@
         <v>589</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -18472,7 +18489,7 @@
         <v>590</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -18509,7 +18526,7 @@
         <v>591</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -18546,7 +18563,7 @@
         <v>592</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -18583,7 +18600,7 @@
         <v>593</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -18657,7 +18674,7 @@
         <v>594</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -18694,7 +18711,7 @@
         <v>595</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -18731,7 +18748,7 @@
         <v>596</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -18768,7 +18785,7 @@
         <v>597</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -18805,7 +18822,7 @@
         <v>598</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -18842,7 +18859,7 @@
         <v>599</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -18878,8 +18895,8 @@
       <c r="F111" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="G111" s="30" t="s">
-        <v>887</v>
+      <c r="G111" s="24" t="s">
+        <v>926</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -18915,8 +18932,8 @@
       <c r="F112" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="G112" s="30" t="s">
-        <v>888</v>
+      <c r="G112" s="24" t="s">
+        <v>927</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -18953,7 +18970,7 @@
         <v>602</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -18990,7 +19007,7 @@
         <v>603</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -19027,7 +19044,7 @@
         <v>604</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -19064,7 +19081,7 @@
         <v>605</v>
       </c>
       <c r="G116" s="30" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -19101,7 +19118,7 @@
         <v>606</v>
       </c>
       <c r="G117" s="24" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -19138,7 +19155,7 @@
         <v>607</v>
       </c>
       <c r="G118" s="24" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -19175,7 +19192,7 @@
         <v>776</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
@@ -19212,7 +19229,7 @@
         <v>608</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -19249,7 +19266,7 @@
         <v>609</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -19286,7 +19303,7 @@
         <v>610</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -19323,7 +19340,7 @@
         <v>611</v>
       </c>
       <c r="G123" s="30" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -19360,7 +19377,7 @@
         <v>612</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -19397,7 +19414,7 @@
         <v>613</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -19434,7 +19451,7 @@
         <v>614</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -19471,7 +19488,7 @@
         <v>615</v>
       </c>
       <c r="G127" s="30" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -19507,8 +19524,8 @@
       <c r="F128" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="G128" s="30" t="s">
-        <v>903</v>
+      <c r="G128" s="24" t="s">
+        <v>928</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -19545,7 +19562,7 @@
         <v>617</v>
       </c>
       <c r="G129" s="24" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -19582,7 +19599,7 @@
         <v>618</v>
       </c>
       <c r="G130" s="24" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -19619,7 +19636,7 @@
         <v>635</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -19656,7 +19673,7 @@
         <v>619</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -19693,7 +19710,7 @@
         <v>620</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -19730,7 +19747,7 @@
         <v>621</v>
       </c>
       <c r="G134" s="24" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -19767,7 +19784,7 @@
         <v>622</v>
       </c>
       <c r="G135" s="24" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -19804,7 +19821,7 @@
         <v>777</v>
       </c>
       <c r="G136" s="24" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -19841,7 +19858,7 @@
         <v>636</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -19878,7 +19895,7 @@
         <v>637</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -19915,7 +19932,7 @@
         <v>638</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -19952,7 +19969,7 @@
         <v>639</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -19989,7 +20006,7 @@
         <v>640</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -20026,7 +20043,7 @@
         <v>641</v>
       </c>
       <c r="G142" s="30" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -20063,7 +20080,7 @@
         <v>778</v>
       </c>
       <c r="G143" s="24" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -20100,7 +20117,7 @@
         <v>779</v>
       </c>
       <c r="G144" s="24" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -20137,7 +20154,7 @@
         <v>642</v>
       </c>
       <c r="G145" s="24" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -20174,7 +20191,7 @@
         <v>530</v>
       </c>
       <c r="G146" s="24" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -20211,7 +20228,7 @@
         <v>784</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -20248,7 +20265,7 @@
         <v>785</v>
       </c>
       <c r="G148" s="24" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -20272,7 +20289,6 @@
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
-      <c r="G149" s="31"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -20295,7 +20311,6 @@
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
-      <c r="G150" s="31"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -20318,7 +20333,6 @@
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
-      <c r="G151" s="31"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -20341,7 +20355,6 @@
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
-      <c r="G152" s="31"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -20364,7 +20377,6 @@
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
-      <c r="G153" s="31"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -20387,7 +20399,6 @@
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
-      <c r="G154" s="31"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -20410,7 +20421,6 @@
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
-      <c r="G155" s="31"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -20433,7 +20443,6 @@
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
-      <c r="G156" s="31"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -20456,7 +20465,6 @@
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
-      <c r="G157" s="31"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -20479,7 +20487,6 @@
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
-      <c r="G158" s="31"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -20502,7 +20509,6 @@
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
-      <c r="G159" s="31"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -20525,7 +20531,6 @@
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
-      <c r="G160" s="31"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -20548,7 +20553,6 @@
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
-      <c r="G161" s="31"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -20571,7 +20575,6 @@
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
-      <c r="G162" s="31"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -20594,7 +20597,6 @@
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
-      <c r="G163" s="31"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -20617,7 +20619,6 @@
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="31"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -20640,7 +20641,6 @@
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
-      <c r="G165" s="31"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -20663,7 +20663,6 @@
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
-      <c r="G166" s="31"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -20686,7 +20685,6 @@
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
-      <c r="G167" s="31"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -20709,7 +20707,6 @@
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
-      <c r="G168" s="31"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -20732,7 +20729,6 @@
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
-      <c r="G169" s="31"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -20755,7 +20751,6 @@
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
-      <c r="G170" s="31"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -20778,7 +20773,6 @@
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
-      <c r="G171" s="31"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -20801,7 +20795,6 @@
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
-      <c r="G172" s="31"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -20824,7 +20817,6 @@
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
-      <c r="G173" s="31"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -20847,7 +20839,6 @@
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
-      <c r="G174" s="31"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -20870,7 +20861,6 @@
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
-      <c r="G175" s="31"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -20893,7 +20883,6 @@
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
-      <c r="G176" s="31"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -20916,7 +20905,6 @@
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
-      <c r="G177" s="31"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -20939,7 +20927,6 @@
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
-      <c r="G178" s="31"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -20962,7 +20949,6 @@
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
-      <c r="G179" s="31"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -20985,7 +20971,6 @@
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
-      <c r="G180" s="31"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -21008,7 +20993,6 @@
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
-      <c r="G181" s="31"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -21031,7 +21015,6 @@
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
-      <c r="G182" s="31"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -21054,7 +21037,6 @@
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
-      <c r="G183" s="31"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -21077,7 +21059,6 @@
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
-      <c r="G184" s="31"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -21100,7 +21081,6 @@
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
-      <c r="G185" s="31"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -21123,7 +21103,6 @@
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
-      <c r="G186" s="31"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -21146,7 +21125,6 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
-      <c r="G187" s="31"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -21169,7 +21147,6 @@
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
-      <c r="G188" s="31"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -21192,7 +21169,6 @@
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
-      <c r="G189" s="31"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -21215,7 +21191,6 @@
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
-      <c r="G190" s="31"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -21238,7 +21213,6 @@
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
-      <c r="G191" s="31"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -21261,7 +21235,6 @@
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
-      <c r="G192" s="31"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -21284,7 +21257,6 @@
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
-      <c r="G193" s="31"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -21307,7 +21279,6 @@
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
-      <c r="G194" s="31"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -21330,7 +21301,6 @@
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
-      <c r="G195" s="31"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -21353,7 +21323,6 @@
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
-      <c r="G196" s="31"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -21376,7 +21345,6 @@
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
-      <c r="G197" s="31"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -21399,7 +21367,6 @@
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
-      <c r="G198" s="31"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -21422,7 +21389,6 @@
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
-      <c r="G199" s="31"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -21445,7 +21411,6 @@
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
-      <c r="G200" s="31"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -21468,7 +21433,6 @@
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
-      <c r="G201" s="31"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -21491,7 +21455,6 @@
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
-      <c r="G202" s="31"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -21514,7 +21477,6 @@
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
-      <c r="G203" s="31"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -21537,7 +21499,6 @@
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
-      <c r="G204" s="31"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -21560,7 +21521,6 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
-      <c r="G205" s="31"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -21583,7 +21543,6 @@
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
-      <c r="G206" s="31"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -21606,7 +21565,6 @@
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
-      <c r="G207" s="31"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -21629,7 +21587,6 @@
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
-      <c r="G208" s="31"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -21652,7 +21609,6 @@
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
-      <c r="G209" s="31"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -21675,7 +21631,6 @@
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
-      <c r="G210" s="31"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -21698,7 +21653,6 @@
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
-      <c r="G211" s="31"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -21721,7 +21675,6 @@
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
-      <c r="G212" s="31"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -21744,7 +21697,6 @@
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
-      <c r="G213" s="31"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -21767,7 +21719,6 @@
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
-      <c r="G214" s="31"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -21790,7 +21741,6 @@
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
-      <c r="G215" s="31"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -21813,7 +21763,6 @@
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
-      <c r="G216" s="31"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -21836,7 +21785,6 @@
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
-      <c r="G217" s="31"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -21859,7 +21807,6 @@
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
-      <c r="G218" s="31"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -21882,7 +21829,6 @@
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
-      <c r="G219" s="31"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -21905,7 +21851,6 @@
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
-      <c r="G220" s="31"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -21928,7 +21873,6 @@
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
-      <c r="G221" s="31"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -21951,7 +21895,6 @@
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
-      <c r="G222" s="31"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -21974,7 +21917,6 @@
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
-      <c r="G223" s="31"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -21997,7 +21939,6 @@
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
-      <c r="G224" s="31"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -22020,7 +21961,6 @@
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
-      <c r="G225" s="31"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -22043,7 +21983,6 @@
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
-      <c r="G226" s="31"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -22066,7 +22005,6 @@
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
-      <c r="G227" s="31"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -22089,7 +22027,6 @@
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="15"/>
-      <c r="G228" s="31"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -22112,7 +22049,6 @@
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
-      <c r="G229" s="31"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -22135,7 +22071,6 @@
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
-      <c r="G230" s="31"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -22158,7 +22093,6 @@
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
-      <c r="G231" s="31"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -22181,7 +22115,6 @@
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
-      <c r="G232" s="31"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -22204,7 +22137,6 @@
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
-      <c r="G233" s="31"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -22227,7 +22159,6 @@
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
-      <c r="G234" s="31"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -22250,7 +22181,6 @@
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
-      <c r="G235" s="31"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -22273,7 +22203,6 @@
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
-      <c r="G236" s="31"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -22296,7 +22225,6 @@
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
-      <c r="G237" s="31"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -22319,7 +22247,6 @@
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="15"/>
-      <c r="G238" s="31"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -22342,7 +22269,6 @@
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
-      <c r="G239" s="31"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -22365,7 +22291,6 @@
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
-      <c r="G240" s="31"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -22388,7 +22313,6 @@
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
-      <c r="G241" s="31"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -22411,7 +22335,6 @@
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
-      <c r="G242" s="31"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -22434,7 +22357,6 @@
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="15"/>
-      <c r="G243" s="31"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -22457,7 +22379,6 @@
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
-      <c r="G244" s="31"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -22480,7 +22401,6 @@
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
-      <c r="G245" s="31"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -22503,7 +22423,6 @@
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
-      <c r="G246" s="31"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -22526,7 +22445,6 @@
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
-      <c r="G247" s="31"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -22549,7 +22467,6 @@
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
-      <c r="G248" s="31"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -22572,7 +22489,6 @@
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
-      <c r="G249" s="31"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -22595,7 +22511,6 @@
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
-      <c r="G250" s="31"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -22618,7 +22533,6 @@
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
-      <c r="G251" s="31"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -22641,7 +22555,6 @@
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
-      <c r="G252" s="31"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -22664,7 +22577,6 @@
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="15"/>
-      <c r="G253" s="31"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -22687,7 +22599,6 @@
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
-      <c r="G254" s="31"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -22710,7 +22621,6 @@
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
-      <c r="G255" s="31"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -22733,7 +22643,6 @@
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
-      <c r="G256" s="31"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -22756,7 +22665,6 @@
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
-      <c r="G257" s="31"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -22779,7 +22687,6 @@
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
-      <c r="G258" s="31"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -22802,7 +22709,6 @@
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
-      <c r="G259" s="31"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -22825,7 +22731,6 @@
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
-      <c r="G260" s="31"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -22848,7 +22753,6 @@
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
-      <c r="G261" s="31"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -22871,7 +22775,6 @@
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
-      <c r="G262" s="31"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -22894,7 +22797,6 @@
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
-      <c r="G263" s="31"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -22917,7 +22819,6 @@
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
-      <c r="G264" s="31"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -22940,7 +22841,6 @@
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
-      <c r="G265" s="31"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -22963,7 +22863,6 @@
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
-      <c r="G266" s="31"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -22986,7 +22885,6 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
-      <c r="G267" s="31"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -23009,7 +22907,6 @@
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
       <c r="F268" s="15"/>
-      <c r="G268" s="31"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -23032,7 +22929,6 @@
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
-      <c r="G269" s="31"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -23055,7 +22951,6 @@
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
-      <c r="G270" s="31"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -23078,7 +22973,6 @@
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
-      <c r="G271" s="31"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -23101,7 +22995,6 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
-      <c r="G272" s="31"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -23124,7 +23017,6 @@
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="F273" s="15"/>
-      <c r="G273" s="31"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -23147,7 +23039,6 @@
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
-      <c r="G274" s="31"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -23170,7 +23061,6 @@
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
-      <c r="G275" s="31"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -23193,7 +23083,6 @@
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
-      <c r="G276" s="31"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -23216,7 +23105,6 @@
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
-      <c r="G277" s="31"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -23239,7 +23127,6 @@
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="F278" s="15"/>
-      <c r="G278" s="31"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -23262,7 +23149,6 @@
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
-      <c r="G279" s="31"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -23285,7 +23171,6 @@
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
-      <c r="G280" s="31"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -23308,7 +23193,6 @@
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
-      <c r="G281" s="31"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -23331,7 +23215,6 @@
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
-      <c r="G282" s="31"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -23354,7 +23237,6 @@
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
-      <c r="G283" s="31"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -23377,7 +23259,6 @@
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
-      <c r="G284" s="31"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -23400,7 +23281,6 @@
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
-      <c r="G285" s="31"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -23423,7 +23303,6 @@
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
-      <c r="G286" s="31"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -23446,7 +23325,6 @@
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
-      <c r="G287" s="31"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -23469,7 +23347,6 @@
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
-      <c r="G288" s="31"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -23492,7 +23369,6 @@
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
-      <c r="G289" s="31"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -23515,7 +23391,6 @@
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
-      <c r="G290" s="31"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -23538,7 +23413,6 @@
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
-      <c r="G291" s="31"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -23561,7 +23435,6 @@
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
-      <c r="G292" s="31"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
@@ -23584,7 +23457,6 @@
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
-      <c r="G293" s="31"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
@@ -23607,7 +23479,6 @@
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
-      <c r="G294" s="31"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
@@ -23630,7 +23501,6 @@
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
-      <c r="G295" s="31"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
@@ -23653,7 +23523,6 @@
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
-      <c r="G296" s="31"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
@@ -23676,7 +23545,6 @@
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
-      <c r="G297" s="31"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
@@ -23699,7 +23567,6 @@
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
       <c r="F298" s="15"/>
-      <c r="G298" s="31"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
@@ -23722,7 +23589,6 @@
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
-      <c r="G299" s="31"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
@@ -23745,7 +23611,6 @@
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
-      <c r="G300" s="31"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
@@ -23768,7 +23633,6 @@
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
-      <c r="G301" s="31"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
@@ -23791,7 +23655,6 @@
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
-      <c r="G302" s="31"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
@@ -23814,7 +23677,6 @@
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
       <c r="F303" s="15"/>
-      <c r="G303" s="31"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -23837,7 +23699,6 @@
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
-      <c r="G304" s="31"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -23860,7 +23721,6 @@
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
-      <c r="G305" s="31"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -23883,7 +23743,6 @@
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
-      <c r="G306" s="31"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -23906,7 +23765,6 @@
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
-      <c r="G307" s="31"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -23929,7 +23787,6 @@
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
-      <c r="G308" s="31"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -23952,7 +23809,6 @@
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
-      <c r="G309" s="31"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -23975,7 +23831,6 @@
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
-      <c r="G310" s="31"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -23998,7 +23853,6 @@
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
-      <c r="G311" s="31"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -24021,7 +23875,6 @@
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
-      <c r="G312" s="31"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -24044,7 +23897,6 @@
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
       <c r="F313" s="15"/>
-      <c r="G313" s="31"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -24067,7 +23919,6 @@
       <c r="D314" s="15"/>
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
-      <c r="G314" s="31"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -24090,7 +23941,6 @@
       <c r="D315" s="15"/>
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
-      <c r="G315" s="31"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -24113,7 +23963,6 @@
       <c r="D316" s="15"/>
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
-      <c r="G316" s="31"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -24136,7 +23985,6 @@
       <c r="D317" s="15"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
-      <c r="G317" s="31"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -24159,7 +24007,6 @@
       <c r="D318" s="15"/>
       <c r="E318" s="15"/>
       <c r="F318" s="15"/>
-      <c r="G318" s="31"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -24182,7 +24029,6 @@
       <c r="D319" s="15"/>
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
-      <c r="G319" s="31"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -24205,7 +24051,6 @@
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
-      <c r="G320" s="31"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -24228,7 +24073,6 @@
       <c r="D321" s="15"/>
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
-      <c r="G321" s="31"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
@@ -24251,7 +24095,6 @@
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
-      <c r="G322" s="31"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
@@ -24274,7 +24117,6 @@
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
       <c r="F323" s="15"/>
-      <c r="G323" s="31"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
@@ -24297,7 +24139,6 @@
       <c r="D324" s="15"/>
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
-      <c r="G324" s="31"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
@@ -24320,7 +24161,6 @@
       <c r="D325" s="15"/>
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
-      <c r="G325" s="31"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
@@ -24343,7 +24183,6 @@
       <c r="D326" s="15"/>
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
-      <c r="G326" s="31"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
@@ -24366,7 +24205,6 @@
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
-      <c r="G327" s="31"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
@@ -24389,7 +24227,6 @@
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
-      <c r="G328" s="31"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
@@ -24412,7 +24249,6 @@
       <c r="D329" s="15"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
-      <c r="G329" s="31"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
@@ -24435,7 +24271,6 @@
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
-      <c r="G330" s="31"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
@@ -24458,7 +24293,6 @@
       <c r="D331" s="15"/>
       <c r="E331" s="15"/>
       <c r="F331" s="15"/>
-      <c r="G331" s="31"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
@@ -24481,7 +24315,6 @@
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
-      <c r="G332" s="31"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -24504,7 +24337,6 @@
       <c r="D333" s="15"/>
       <c r="E333" s="15"/>
       <c r="F333" s="15"/>
-      <c r="G333" s="31"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -24527,7 +24359,6 @@
       <c r="D334" s="15"/>
       <c r="E334" s="15"/>
       <c r="F334" s="15"/>
-      <c r="G334" s="31"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -24550,7 +24381,6 @@
       <c r="D335" s="15"/>
       <c r="E335" s="15"/>
       <c r="F335" s="15"/>
-      <c r="G335" s="31"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -24573,7 +24403,6 @@
       <c r="D336" s="15"/>
       <c r="E336" s="15"/>
       <c r="F336" s="15"/>
-      <c r="G336" s="31"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -24596,7 +24425,6 @@
       <c r="D337" s="15"/>
       <c r="E337" s="15"/>
       <c r="F337" s="15"/>
-      <c r="G337" s="31"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -24619,7 +24447,6 @@
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
       <c r="F338" s="15"/>
-      <c r="G338" s="31"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -24642,7 +24469,6 @@
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
       <c r="F339" s="15"/>
-      <c r="G339" s="31"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -24665,7 +24491,6 @@
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
       <c r="F340" s="15"/>
-      <c r="G340" s="31"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -24688,7 +24513,6 @@
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
       <c r="F341" s="15"/>
-      <c r="G341" s="31"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -24711,7 +24535,6 @@
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
-      <c r="G342" s="31"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -24734,7 +24557,6 @@
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
       <c r="F343" s="15"/>
-      <c r="G343" s="31"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -24757,7 +24579,6 @@
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
       <c r="F344" s="15"/>
-      <c r="G344" s="31"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -24780,7 +24601,6 @@
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
       <c r="F345" s="15"/>
-      <c r="G345" s="31"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -24803,7 +24623,6 @@
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
       <c r="F346" s="15"/>
-      <c r="G346" s="31"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -24826,7 +24645,6 @@
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
       <c r="F347" s="15"/>
-      <c r="G347" s="31"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -24849,7 +24667,6 @@
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
       <c r="F348" s="15"/>
-      <c r="G348" s="31"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -24872,7 +24689,6 @@
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
-      <c r="G349" s="31"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -24895,7 +24711,6 @@
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
-      <c r="G350" s="31"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
@@ -24918,7 +24733,6 @@
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
       <c r="F351" s="15"/>
-      <c r="G351" s="31"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
@@ -24941,7 +24755,6 @@
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
       <c r="F352" s="15"/>
-      <c r="G352" s="31"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
@@ -24964,7 +24777,6 @@
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
-      <c r="G353" s="31"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
@@ -24987,7 +24799,6 @@
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
-      <c r="G354" s="31"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
@@ -25010,7 +24821,6 @@
       <c r="D355" s="15"/>
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
-      <c r="G355" s="31"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
@@ -25033,7 +24843,6 @@
       <c r="D356" s="15"/>
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
-      <c r="G356" s="31"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
@@ -25056,7 +24865,6 @@
       <c r="D357" s="15"/>
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
-      <c r="G357" s="31"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
@@ -25079,7 +24887,6 @@
       <c r="D358" s="15"/>
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
-      <c r="G358" s="31"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
@@ -25102,7 +24909,6 @@
       <c r="D359" s="15"/>
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
-      <c r="G359" s="31"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
@@ -25125,7 +24931,6 @@
       <c r="D360" s="15"/>
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
-      <c r="G360" s="31"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
@@ -25148,7 +24953,6 @@
       <c r="D361" s="15"/>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
-      <c r="G361" s="31"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -25171,7 +24975,6 @@
       <c r="D362" s="15"/>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
-      <c r="G362" s="31"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -25194,7 +24997,6 @@
       <c r="D363" s="15"/>
       <c r="E363" s="15"/>
       <c r="F363" s="15"/>
-      <c r="G363" s="31"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -25217,7 +25019,6 @@
       <c r="D364" s="15"/>
       <c r="E364" s="15"/>
       <c r="F364" s="15"/>
-      <c r="G364" s="31"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -25240,7 +25041,6 @@
       <c r="D365" s="15"/>
       <c r="E365" s="15"/>
       <c r="F365" s="15"/>
-      <c r="G365" s="31"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -25263,7 +25063,6 @@
       <c r="D366" s="15"/>
       <c r="E366" s="15"/>
       <c r="F366" s="15"/>
-      <c r="G366" s="31"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -25286,7 +25085,6 @@
       <c r="D367" s="15"/>
       <c r="E367" s="15"/>
       <c r="F367" s="15"/>
-      <c r="G367" s="31"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -25309,7 +25107,6 @@
       <c r="D368" s="15"/>
       <c r="E368" s="15"/>
       <c r="F368" s="15"/>
-      <c r="G368" s="31"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -25332,7 +25129,6 @@
       <c r="D369" s="15"/>
       <c r="E369" s="15"/>
       <c r="F369" s="15"/>
-      <c r="G369" s="31"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -25355,7 +25151,6 @@
       <c r="D370" s="15"/>
       <c r="E370" s="15"/>
       <c r="F370" s="15"/>
-      <c r="G370" s="31"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -25378,7 +25173,6 @@
       <c r="D371" s="15"/>
       <c r="E371" s="15"/>
       <c r="F371" s="15"/>
-      <c r="G371" s="31"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -25401,7 +25195,6 @@
       <c r="D372" s="15"/>
       <c r="E372" s="15"/>
       <c r="F372" s="15"/>
-      <c r="G372" s="31"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -25424,7 +25217,6 @@
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
       <c r="F373" s="15"/>
-      <c r="G373" s="31"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -25447,7 +25239,6 @@
       <c r="D374" s="15"/>
       <c r="E374" s="15"/>
       <c r="F374" s="15"/>
-      <c r="G374" s="31"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -25470,7 +25261,6 @@
       <c r="D375" s="15"/>
       <c r="E375" s="15"/>
       <c r="F375" s="15"/>
-      <c r="G375" s="31"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -25493,7 +25283,6 @@
       <c r="D376" s="15"/>
       <c r="E376" s="15"/>
       <c r="F376" s="15"/>
-      <c r="G376" s="31"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -25516,7 +25305,6 @@
       <c r="D377" s="15"/>
       <c r="E377" s="15"/>
       <c r="F377" s="15"/>
-      <c r="G377" s="31"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -25539,7 +25327,6 @@
       <c r="D378" s="15"/>
       <c r="E378" s="15"/>
       <c r="F378" s="15"/>
-      <c r="G378" s="31"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -25562,7 +25349,6 @@
       <c r="D379" s="15"/>
       <c r="E379" s="15"/>
       <c r="F379" s="15"/>
-      <c r="G379" s="31"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
@@ -25585,7 +25371,6 @@
       <c r="D380" s="15"/>
       <c r="E380" s="15"/>
       <c r="F380" s="15"/>
-      <c r="G380" s="31"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
@@ -25608,7 +25393,6 @@
       <c r="D381" s="15"/>
       <c r="E381" s="15"/>
       <c r="F381" s="15"/>
-      <c r="G381" s="31"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
@@ -25631,7 +25415,6 @@
       <c r="D382" s="15"/>
       <c r="E382" s="15"/>
       <c r="F382" s="15"/>
-      <c r="G382" s="31"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
@@ -25654,7 +25437,6 @@
       <c r="D383" s="15"/>
       <c r="E383" s="15"/>
       <c r="F383" s="15"/>
-      <c r="G383" s="31"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
@@ -25677,7 +25459,6 @@
       <c r="D384" s="15"/>
       <c r="E384" s="15"/>
       <c r="F384" s="15"/>
-      <c r="G384" s="31"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
@@ -25700,7 +25481,6 @@
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="15"/>
-      <c r="G385" s="31"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
@@ -25723,7 +25503,6 @@
       <c r="D386" s="15"/>
       <c r="E386" s="15"/>
       <c r="F386" s="15"/>
-      <c r="G386" s="31"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
@@ -25746,7 +25525,6 @@
       <c r="D387" s="15"/>
       <c r="E387" s="15"/>
       <c r="F387" s="15"/>
-      <c r="G387" s="31"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
@@ -25769,7 +25547,6 @@
       <c r="D388" s="15"/>
       <c r="E388" s="15"/>
       <c r="F388" s="15"/>
-      <c r="G388" s="31"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -25792,7 +25569,6 @@
       <c r="D389" s="15"/>
       <c r="E389" s="15"/>
       <c r="F389" s="15"/>
-      <c r="G389" s="31"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -25815,7 +25591,6 @@
       <c r="D390" s="15"/>
       <c r="E390" s="15"/>
       <c r="F390" s="15"/>
-      <c r="G390" s="31"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -25838,7 +25613,6 @@
       <c r="D391" s="15"/>
       <c r="E391" s="15"/>
       <c r="F391" s="15"/>
-      <c r="G391" s="31"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -25861,7 +25635,6 @@
       <c r="D392" s="15"/>
       <c r="E392" s="15"/>
       <c r="F392" s="15"/>
-      <c r="G392" s="31"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -25884,7 +25657,6 @@
       <c r="D393" s="15"/>
       <c r="E393" s="15"/>
       <c r="F393" s="15"/>
-      <c r="G393" s="31"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -25907,7 +25679,6 @@
       <c r="D394" s="15"/>
       <c r="E394" s="15"/>
       <c r="F394" s="15"/>
-      <c r="G394" s="31"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -25930,7 +25701,6 @@
       <c r="D395" s="15"/>
       <c r="E395" s="15"/>
       <c r="F395" s="15"/>
-      <c r="G395" s="31"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -25953,7 +25723,6 @@
       <c r="D396" s="15"/>
       <c r="E396" s="15"/>
       <c r="F396" s="15"/>
-      <c r="G396" s="31"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -25976,7 +25745,6 @@
       <c r="D397" s="15"/>
       <c r="E397" s="15"/>
       <c r="F397" s="15"/>
-      <c r="G397" s="31"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -25999,7 +25767,6 @@
       <c r="D398" s="15"/>
       <c r="E398" s="15"/>
       <c r="F398" s="15"/>
-      <c r="G398" s="31"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -26022,7 +25789,6 @@
       <c r="D399" s="15"/>
       <c r="E399" s="15"/>
       <c r="F399" s="15"/>
-      <c r="G399" s="31"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -26045,7 +25811,6 @@
       <c r="D400" s="15"/>
       <c r="E400" s="15"/>
       <c r="F400" s="15"/>
-      <c r="G400" s="31"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -26068,7 +25833,6 @@
       <c r="D401" s="15"/>
       <c r="E401" s="15"/>
       <c r="F401" s="15"/>
-      <c r="G401" s="31"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -26091,7 +25855,6 @@
       <c r="D402" s="15"/>
       <c r="E402" s="15"/>
       <c r="F402" s="15"/>
-      <c r="G402" s="31"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -26114,7 +25877,6 @@
       <c r="D403" s="15"/>
       <c r="E403" s="15"/>
       <c r="F403" s="15"/>
-      <c r="G403" s="31"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -26137,7 +25899,6 @@
       <c r="D404" s="15"/>
       <c r="E404" s="15"/>
       <c r="F404" s="15"/>
-      <c r="G404" s="31"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -26160,7 +25921,6 @@
       <c r="D405" s="15"/>
       <c r="E405" s="15"/>
       <c r="F405" s="15"/>
-      <c r="G405" s="31"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -26183,7 +25943,6 @@
       <c r="D406" s="15"/>
       <c r="E406" s="15"/>
       <c r="F406" s="15"/>
-      <c r="G406" s="31"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -26206,7 +25965,6 @@
       <c r="D407" s="15"/>
       <c r="E407" s="15"/>
       <c r="F407" s="15"/>
-      <c r="G407" s="31"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -26229,7 +25987,6 @@
       <c r="D408" s="15"/>
       <c r="E408" s="15"/>
       <c r="F408" s="15"/>
-      <c r="G408" s="31"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
@@ -26252,7 +26009,6 @@
       <c r="D409" s="15"/>
       <c r="E409" s="15"/>
       <c r="F409" s="15"/>
-      <c r="G409" s="31"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
@@ -26275,7 +26031,6 @@
       <c r="D410" s="15"/>
       <c r="E410" s="15"/>
       <c r="F410" s="15"/>
-      <c r="G410" s="31"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
@@ -26298,7 +26053,6 @@
       <c r="D411" s="15"/>
       <c r="E411" s="15"/>
       <c r="F411" s="15"/>
-      <c r="G411" s="31"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
@@ -26321,7 +26075,6 @@
       <c r="D412" s="15"/>
       <c r="E412" s="15"/>
       <c r="F412" s="15"/>
-      <c r="G412" s="31"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
@@ -26344,7 +26097,6 @@
       <c r="D413" s="15"/>
       <c r="E413" s="15"/>
       <c r="F413" s="15"/>
-      <c r="G413" s="31"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
@@ -26367,7 +26119,6 @@
       <c r="D414" s="15"/>
       <c r="E414" s="15"/>
       <c r="F414" s="15"/>
-      <c r="G414" s="31"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
@@ -26390,7 +26141,6 @@
       <c r="D415" s="15"/>
       <c r="E415" s="15"/>
       <c r="F415" s="15"/>
-      <c r="G415" s="31"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
@@ -26413,7 +26163,6 @@
       <c r="D416" s="15"/>
       <c r="E416" s="15"/>
       <c r="F416" s="15"/>
-      <c r="G416" s="31"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
@@ -26436,7 +26185,6 @@
       <c r="D417" s="15"/>
       <c r="E417" s="15"/>
       <c r="F417" s="15"/>
-      <c r="G417" s="31"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
@@ -26459,7 +26207,6 @@
       <c r="D418" s="15"/>
       <c r="E418" s="15"/>
       <c r="F418" s="15"/>
-      <c r="G418" s="31"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
@@ -26482,7 +26229,6 @@
       <c r="D419" s="15"/>
       <c r="E419" s="15"/>
       <c r="F419" s="15"/>
-      <c r="G419" s="31"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -26505,7 +26251,6 @@
       <c r="D420" s="15"/>
       <c r="E420" s="15"/>
       <c r="F420" s="15"/>
-      <c r="G420" s="31"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -26528,7 +26273,6 @@
       <c r="D421" s="15"/>
       <c r="E421" s="15"/>
       <c r="F421" s="15"/>
-      <c r="G421" s="31"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -26551,7 +26295,6 @@
       <c r="D422" s="15"/>
       <c r="E422" s="15"/>
       <c r="F422" s="15"/>
-      <c r="G422" s="31"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -26574,7 +26317,6 @@
       <c r="D423" s="15"/>
       <c r="E423" s="15"/>
       <c r="F423" s="15"/>
-      <c r="G423" s="31"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -26597,7 +26339,6 @@
       <c r="D424" s="15"/>
       <c r="E424" s="15"/>
       <c r="F424" s="15"/>
-      <c r="G424" s="31"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -26620,7 +26361,6 @@
       <c r="D425" s="15"/>
       <c r="E425" s="15"/>
       <c r="F425" s="15"/>
-      <c r="G425" s="31"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -26643,7 +26383,6 @@
       <c r="D426" s="15"/>
       <c r="E426" s="15"/>
       <c r="F426" s="15"/>
-      <c r="G426" s="31"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -26666,7 +26405,6 @@
       <c r="D427" s="15"/>
       <c r="E427" s="15"/>
       <c r="F427" s="15"/>
-      <c r="G427" s="31"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -26689,7 +26427,6 @@
       <c r="D428" s="15"/>
       <c r="E428" s="15"/>
       <c r="F428" s="15"/>
-      <c r="G428" s="31"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -26712,7 +26449,6 @@
       <c r="D429" s="15"/>
       <c r="E429" s="15"/>
       <c r="F429" s="15"/>
-      <c r="G429" s="31"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -26735,7 +26471,6 @@
       <c r="D430" s="15"/>
       <c r="E430" s="15"/>
       <c r="F430" s="15"/>
-      <c r="G430" s="31"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -26758,7 +26493,6 @@
       <c r="D431" s="15"/>
       <c r="E431" s="15"/>
       <c r="F431" s="15"/>
-      <c r="G431" s="31"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -26781,7 +26515,6 @@
       <c r="D432" s="15"/>
       <c r="E432" s="15"/>
       <c r="F432" s="15"/>
-      <c r="G432" s="31"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -26804,7 +26537,6 @@
       <c r="D433" s="15"/>
       <c r="E433" s="15"/>
       <c r="F433" s="15"/>
-      <c r="G433" s="31"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -26827,7 +26559,6 @@
       <c r="D434" s="15"/>
       <c r="E434" s="15"/>
       <c r="F434" s="15"/>
-      <c r="G434" s="31"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -26850,7 +26581,6 @@
       <c r="D435" s="15"/>
       <c r="E435" s="15"/>
       <c r="F435" s="15"/>
-      <c r="G435" s="31"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -26873,7 +26603,6 @@
       <c r="D436" s="15"/>
       <c r="E436" s="15"/>
       <c r="F436" s="15"/>
-      <c r="G436" s="31"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -26896,7 +26625,6 @@
       <c r="D437" s="15"/>
       <c r="E437" s="15"/>
       <c r="F437" s="15"/>
-      <c r="G437" s="31"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
@@ -26919,7 +26647,6 @@
       <c r="D438" s="15"/>
       <c r="E438" s="15"/>
       <c r="F438" s="15"/>
-      <c r="G438" s="31"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
@@ -26942,7 +26669,6 @@
       <c r="D439" s="15"/>
       <c r="E439" s="15"/>
       <c r="F439" s="15"/>
-      <c r="G439" s="31"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
@@ -26965,7 +26691,6 @@
       <c r="D440" s="15"/>
       <c r="E440" s="15"/>
       <c r="F440" s="15"/>
-      <c r="G440" s="31"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
@@ -26988,7 +26713,6 @@
       <c r="D441" s="15"/>
       <c r="E441" s="15"/>
       <c r="F441" s="15"/>
-      <c r="G441" s="31"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
@@ -27011,7 +26735,6 @@
       <c r="D442" s="15"/>
       <c r="E442" s="15"/>
       <c r="F442" s="15"/>
-      <c r="G442" s="31"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
@@ -27034,7 +26757,6 @@
       <c r="D443" s="15"/>
       <c r="E443" s="15"/>
       <c r="F443" s="15"/>
-      <c r="G443" s="31"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
@@ -27057,7 +26779,6 @@
       <c r="D444" s="15"/>
       <c r="E444" s="15"/>
       <c r="F444" s="15"/>
-      <c r="G444" s="31"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
@@ -27080,7 +26801,6 @@
       <c r="D445" s="15"/>
       <c r="E445" s="15"/>
       <c r="F445" s="15"/>
-      <c r="G445" s="31"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
@@ -27103,7 +26823,6 @@
       <c r="D446" s="15"/>
       <c r="E446" s="15"/>
       <c r="F446" s="15"/>
-      <c r="G446" s="31"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
@@ -27126,7 +26845,6 @@
       <c r="D447" s="15"/>
       <c r="E447" s="15"/>
       <c r="F447" s="15"/>
-      <c r="G447" s="31"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
@@ -27149,7 +26867,6 @@
       <c r="D448" s="15"/>
       <c r="E448" s="15"/>
       <c r="F448" s="15"/>
-      <c r="G448" s="31"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -27172,7 +26889,6 @@
       <c r="D449" s="15"/>
       <c r="E449" s="15"/>
       <c r="F449" s="15"/>
-      <c r="G449" s="31"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -27195,7 +26911,6 @@
       <c r="D450" s="15"/>
       <c r="E450" s="15"/>
       <c r="F450" s="15"/>
-      <c r="G450" s="31"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -27218,7 +26933,6 @@
       <c r="D451" s="15"/>
       <c r="E451" s="15"/>
       <c r="F451" s="15"/>
-      <c r="G451" s="31"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -27241,7 +26955,6 @@
       <c r="D452" s="15"/>
       <c r="E452" s="15"/>
       <c r="F452" s="15"/>
-      <c r="G452" s="31"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -27264,7 +26977,6 @@
       <c r="D453" s="15"/>
       <c r="E453" s="15"/>
       <c r="F453" s="15"/>
-      <c r="G453" s="31"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -27287,7 +26999,6 @@
       <c r="D454" s="15"/>
       <c r="E454" s="15"/>
       <c r="F454" s="15"/>
-      <c r="G454" s="31"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -27310,7 +27021,6 @@
       <c r="D455" s="15"/>
       <c r="E455" s="15"/>
       <c r="F455" s="15"/>
-      <c r="G455" s="31"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -27333,7 +27043,6 @@
       <c r="D456" s="15"/>
       <c r="E456" s="15"/>
       <c r="F456" s="15"/>
-      <c r="G456" s="31"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -27356,7 +27065,6 @@
       <c r="D457" s="15"/>
       <c r="E457" s="15"/>
       <c r="F457" s="15"/>
-      <c r="G457" s="31"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -27379,7 +27087,6 @@
       <c r="D458" s="15"/>
       <c r="E458" s="15"/>
       <c r="F458" s="15"/>
-      <c r="G458" s="31"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -27402,7 +27109,6 @@
       <c r="D459" s="15"/>
       <c r="E459" s="15"/>
       <c r="F459" s="15"/>
-      <c r="G459" s="31"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -27425,7 +27131,6 @@
       <c r="D460" s="15"/>
       <c r="E460" s="15"/>
       <c r="F460" s="15"/>
-      <c r="G460" s="31"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -27448,7 +27153,6 @@
       <c r="D461" s="15"/>
       <c r="E461" s="15"/>
       <c r="F461" s="15"/>
-      <c r="G461" s="31"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -27471,7 +27175,6 @@
       <c r="D462" s="15"/>
       <c r="E462" s="15"/>
       <c r="F462" s="15"/>
-      <c r="G462" s="31"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -27494,7 +27197,6 @@
       <c r="D463" s="15"/>
       <c r="E463" s="15"/>
       <c r="F463" s="15"/>
-      <c r="G463" s="31"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -27517,7 +27219,6 @@
       <c r="D464" s="15"/>
       <c r="E464" s="15"/>
       <c r="F464" s="15"/>
-      <c r="G464" s="31"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -27540,7 +27241,6 @@
       <c r="D465" s="15"/>
       <c r="E465" s="15"/>
       <c r="F465" s="15"/>
-      <c r="G465" s="31"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -27563,7 +27263,6 @@
       <c r="D466" s="15"/>
       <c r="E466" s="15"/>
       <c r="F466" s="15"/>
-      <c r="G466" s="31"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
@@ -27586,7 +27285,6 @@
       <c r="D467" s="15"/>
       <c r="E467" s="15"/>
       <c r="F467" s="15"/>
-      <c r="G467" s="31"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
@@ -27609,7 +27307,6 @@
       <c r="D468" s="15"/>
       <c r="E468" s="15"/>
       <c r="F468" s="15"/>
-      <c r="G468" s="31"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
@@ -27632,7 +27329,6 @@
       <c r="D469" s="15"/>
       <c r="E469" s="15"/>
       <c r="F469" s="15"/>
-      <c r="G469" s="31"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
@@ -27655,7 +27351,6 @@
       <c r="D470" s="15"/>
       <c r="E470" s="15"/>
       <c r="F470" s="15"/>
-      <c r="G470" s="31"/>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
@@ -27678,7 +27373,6 @@
       <c r="D471" s="15"/>
       <c r="E471" s="15"/>
       <c r="F471" s="15"/>
-      <c r="G471" s="31"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
@@ -27701,7 +27395,6 @@
       <c r="D472" s="15"/>
       <c r="E472" s="15"/>
       <c r="F472" s="15"/>
-      <c r="G472" s="31"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
@@ -27724,7 +27417,6 @@
       <c r="D473" s="15"/>
       <c r="E473" s="15"/>
       <c r="F473" s="15"/>
-      <c r="G473" s="31"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
@@ -27747,7 +27439,6 @@
       <c r="D474" s="15"/>
       <c r="E474" s="15"/>
       <c r="F474" s="15"/>
-      <c r="G474" s="31"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
@@ -27770,7 +27461,6 @@
       <c r="D475" s="15"/>
       <c r="E475" s="15"/>
       <c r="F475" s="15"/>
-      <c r="G475" s="31"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
@@ -27793,7 +27483,6 @@
       <c r="D476" s="15"/>
       <c r="E476" s="15"/>
       <c r="F476" s="15"/>
-      <c r="G476" s="31"/>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
@@ -27816,7 +27505,6 @@
       <c r="D477" s="15"/>
       <c r="E477" s="15"/>
       <c r="F477" s="15"/>
-      <c r="G477" s="31"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -27839,7 +27527,6 @@
       <c r="D478" s="15"/>
       <c r="E478" s="15"/>
       <c r="F478" s="15"/>
-      <c r="G478" s="31"/>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -27862,7 +27549,6 @@
       <c r="D479" s="15"/>
       <c r="E479" s="15"/>
       <c r="F479" s="15"/>
-      <c r="G479" s="31"/>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -27885,7 +27571,6 @@
       <c r="D480" s="15"/>
       <c r="E480" s="15"/>
       <c r="F480" s="15"/>
-      <c r="G480" s="31"/>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -27908,7 +27593,6 @@
       <c r="D481" s="15"/>
       <c r="E481" s="15"/>
       <c r="F481" s="15"/>
-      <c r="G481" s="31"/>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -27931,7 +27615,6 @@
       <c r="D482" s="15"/>
       <c r="E482" s="15"/>
       <c r="F482" s="15"/>
-      <c r="G482" s="31"/>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -27954,7 +27637,6 @@
       <c r="D483" s="15"/>
       <c r="E483" s="15"/>
       <c r="F483" s="15"/>
-      <c r="G483" s="31"/>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -27977,7 +27659,6 @@
       <c r="D484" s="15"/>
       <c r="E484" s="15"/>
       <c r="F484" s="15"/>
-      <c r="G484" s="31"/>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -28000,7 +27681,6 @@
       <c r="D485" s="15"/>
       <c r="E485" s="15"/>
       <c r="F485" s="15"/>
-      <c r="G485" s="31"/>
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -28023,7 +27703,6 @@
       <c r="D486" s="15"/>
       <c r="E486" s="15"/>
       <c r="F486" s="15"/>
-      <c r="G486" s="31"/>
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -28046,7 +27725,6 @@
       <c r="D487" s="15"/>
       <c r="E487" s="15"/>
       <c r="F487" s="15"/>
-      <c r="G487" s="31"/>
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -28069,7 +27747,6 @@
       <c r="D488" s="15"/>
       <c r="E488" s="15"/>
       <c r="F488" s="15"/>
-      <c r="G488" s="31"/>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -28092,7 +27769,6 @@
       <c r="D489" s="15"/>
       <c r="E489" s="15"/>
       <c r="F489" s="15"/>
-      <c r="G489" s="31"/>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -28115,7 +27791,6 @@
       <c r="D490" s="15"/>
       <c r="E490" s="15"/>
       <c r="F490" s="15"/>
-      <c r="G490" s="31"/>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -28138,7 +27813,6 @@
       <c r="D491" s="15"/>
       <c r="E491" s="15"/>
       <c r="F491" s="15"/>
-      <c r="G491" s="31"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -28161,7 +27835,6 @@
       <c r="D492" s="15"/>
       <c r="E492" s="15"/>
       <c r="F492" s="15"/>
-      <c r="G492" s="31"/>
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -28184,7 +27857,6 @@
       <c r="D493" s="15"/>
       <c r="E493" s="15"/>
       <c r="F493" s="15"/>
-      <c r="G493" s="31"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -28207,7 +27879,6 @@
       <c r="D494" s="15"/>
       <c r="E494" s="15"/>
       <c r="F494" s="15"/>
-      <c r="G494" s="31"/>
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -28230,7 +27901,6 @@
       <c r="D495" s="15"/>
       <c r="E495" s="15"/>
       <c r="F495" s="15"/>
-      <c r="G495" s="31"/>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
@@ -28253,7 +27923,6 @@
       <c r="D496" s="15"/>
       <c r="E496" s="15"/>
       <c r="F496" s="15"/>
-      <c r="G496" s="31"/>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
@@ -28276,7 +27945,6 @@
       <c r="D497" s="15"/>
       <c r="E497" s="15"/>
       <c r="F497" s="15"/>
-      <c r="G497" s="31"/>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
@@ -28299,7 +27967,6 @@
       <c r="D498" s="15"/>
       <c r="E498" s="15"/>
       <c r="F498" s="15"/>
-      <c r="G498" s="31"/>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
@@ -28322,7 +27989,6 @@
       <c r="D499" s="15"/>
       <c r="E499" s="15"/>
       <c r="F499" s="15"/>
-      <c r="G499" s="31"/>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
@@ -28345,7 +28011,6 @@
       <c r="D500" s="15"/>
       <c r="E500" s="15"/>
       <c r="F500" s="15"/>
-      <c r="G500" s="31"/>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
@@ -28368,7 +28033,6 @@
       <c r="D501" s="15"/>
       <c r="E501" s="15"/>
       <c r="F501" s="15"/>
-      <c r="G501" s="31"/>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
@@ -28391,7 +28055,6 @@
       <c r="D502" s="15"/>
       <c r="E502" s="15"/>
       <c r="F502" s="15"/>
-      <c r="G502" s="31"/>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
@@ -28414,7 +28077,6 @@
       <c r="D503" s="15"/>
       <c r="E503" s="15"/>
       <c r="F503" s="15"/>
-      <c r="G503" s="31"/>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
@@ -28437,7 +28099,6 @@
       <c r="D504" s="15"/>
       <c r="E504" s="15"/>
       <c r="F504" s="15"/>
-      <c r="G504" s="31"/>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
@@ -28460,7 +28121,6 @@
       <c r="D505" s="15"/>
       <c r="E505" s="15"/>
       <c r="F505" s="15"/>
-      <c r="G505" s="31"/>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
@@ -28483,7 +28143,6 @@
       <c r="D506" s="15"/>
       <c r="E506" s="15"/>
       <c r="F506" s="15"/>
-      <c r="G506" s="31"/>
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
@@ -28506,7 +28165,6 @@
       <c r="D507" s="15"/>
       <c r="E507" s="15"/>
       <c r="F507" s="15"/>
-      <c r="G507" s="31"/>
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -28529,7 +28187,6 @@
       <c r="D508" s="15"/>
       <c r="E508" s="15"/>
       <c r="F508" s="15"/>
-      <c r="G508" s="31"/>
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -28552,7 +28209,6 @@
       <c r="D509" s="15"/>
       <c r="E509" s="15"/>
       <c r="F509" s="15"/>
-      <c r="G509" s="31"/>
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -28575,7 +28231,6 @@
       <c r="D510" s="15"/>
       <c r="E510" s="15"/>
       <c r="F510" s="15"/>
-      <c r="G510" s="31"/>
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -28598,7 +28253,6 @@
       <c r="D511" s="15"/>
       <c r="E511" s="15"/>
       <c r="F511" s="15"/>
-      <c r="G511" s="31"/>
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -28621,7 +28275,6 @@
       <c r="D512" s="15"/>
       <c r="E512" s="15"/>
       <c r="F512" s="15"/>
-      <c r="G512" s="31"/>
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -28644,7 +28297,6 @@
       <c r="D513" s="15"/>
       <c r="E513" s="15"/>
       <c r="F513" s="15"/>
-      <c r="G513" s="31"/>
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -28667,7 +28319,6 @@
       <c r="D514" s="15"/>
       <c r="E514" s="15"/>
       <c r="F514" s="15"/>
-      <c r="G514" s="31"/>
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -28690,7 +28341,6 @@
       <c r="D515" s="15"/>
       <c r="E515" s="15"/>
       <c r="F515" s="15"/>
-      <c r="G515" s="31"/>
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -28713,7 +28363,6 @@
       <c r="D516" s="15"/>
       <c r="E516" s="15"/>
       <c r="F516" s="15"/>
-      <c r="G516" s="31"/>
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -28736,7 +28385,6 @@
       <c r="D517" s="15"/>
       <c r="E517" s="15"/>
       <c r="F517" s="15"/>
-      <c r="G517" s="31"/>
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -28759,7 +28407,6 @@
       <c r="D518" s="15"/>
       <c r="E518" s="15"/>
       <c r="F518" s="15"/>
-      <c r="G518" s="31"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -28782,7 +28429,6 @@
       <c r="D519" s="15"/>
       <c r="E519" s="15"/>
       <c r="F519" s="15"/>
-      <c r="G519" s="31"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -28805,7 +28451,6 @@
       <c r="D520" s="15"/>
       <c r="E520" s="15"/>
       <c r="F520" s="15"/>
-      <c r="G520" s="31"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -28828,7 +28473,6 @@
       <c r="D521" s="15"/>
       <c r="E521" s="15"/>
       <c r="F521" s="15"/>
-      <c r="G521" s="31"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -28851,7 +28495,6 @@
       <c r="D522" s="15"/>
       <c r="E522" s="15"/>
       <c r="F522" s="15"/>
-      <c r="G522" s="31"/>
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -28874,7 +28517,6 @@
       <c r="D523" s="15"/>
       <c r="E523" s="15"/>
       <c r="F523" s="15"/>
-      <c r="G523" s="31"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -28897,7 +28539,6 @@
       <c r="D524" s="15"/>
       <c r="E524" s="15"/>
       <c r="F524" s="15"/>
-      <c r="G524" s="31"/>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
@@ -28920,7 +28561,6 @@
       <c r="D525" s="15"/>
       <c r="E525" s="15"/>
       <c r="F525" s="15"/>
-      <c r="G525" s="31"/>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
@@ -28943,7 +28583,6 @@
       <c r="D526" s="15"/>
       <c r="E526" s="15"/>
       <c r="F526" s="15"/>
-      <c r="G526" s="31"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
@@ -28966,7 +28605,6 @@
       <c r="D527" s="15"/>
       <c r="E527" s="15"/>
       <c r="F527" s="15"/>
-      <c r="G527" s="31"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
@@ -28989,7 +28627,6 @@
       <c r="D528" s="15"/>
       <c r="E528" s="15"/>
       <c r="F528" s="15"/>
-      <c r="G528" s="31"/>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
@@ -29012,7 +28649,6 @@
       <c r="D529" s="15"/>
       <c r="E529" s="15"/>
       <c r="F529" s="15"/>
-      <c r="G529" s="31"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
@@ -29035,7 +28671,6 @@
       <c r="D530" s="15"/>
       <c r="E530" s="15"/>
       <c r="F530" s="15"/>
-      <c r="G530" s="31"/>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
@@ -29058,7 +28693,6 @@
       <c r="D531" s="15"/>
       <c r="E531" s="15"/>
       <c r="F531" s="15"/>
-      <c r="G531" s="31"/>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
@@ -29081,7 +28715,6 @@
       <c r="D532" s="15"/>
       <c r="E532" s="15"/>
       <c r="F532" s="15"/>
-      <c r="G532" s="31"/>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
@@ -29104,7 +28737,6 @@
       <c r="D533" s="15"/>
       <c r="E533" s="15"/>
       <c r="F533" s="15"/>
-      <c r="G533" s="31"/>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
@@ -29127,7 +28759,6 @@
       <c r="D534" s="15"/>
       <c r="E534" s="15"/>
       <c r="F534" s="15"/>
-      <c r="G534" s="31"/>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
@@ -29150,7 +28781,6 @@
       <c r="D535" s="15"/>
       <c r="E535" s="15"/>
       <c r="F535" s="15"/>
-      <c r="G535" s="31"/>
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -29173,7 +28803,6 @@
       <c r="D536" s="15"/>
       <c r="E536" s="15"/>
       <c r="F536" s="15"/>
-      <c r="G536" s="31"/>
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -29196,7 +28825,6 @@
       <c r="D537" s="15"/>
       <c r="E537" s="15"/>
       <c r="F537" s="15"/>
-      <c r="G537" s="31"/>
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -29219,7 +28847,6 @@
       <c r="D538" s="15"/>
       <c r="E538" s="15"/>
       <c r="F538" s="15"/>
-      <c r="G538" s="31"/>
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -29242,7 +28869,6 @@
       <c r="D539" s="15"/>
       <c r="E539" s="15"/>
       <c r="F539" s="15"/>
-      <c r="G539" s="31"/>
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -29265,7 +28891,6 @@
       <c r="D540" s="15"/>
       <c r="E540" s="15"/>
       <c r="F540" s="15"/>
-      <c r="G540" s="31"/>
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -29288,7 +28913,6 @@
       <c r="D541" s="15"/>
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
-      <c r="G541" s="31"/>
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -29311,7 +28935,6 @@
       <c r="D542" s="15"/>
       <c r="E542" s="15"/>
       <c r="F542" s="15"/>
-      <c r="G542" s="31"/>
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -29334,7 +28957,6 @@
       <c r="D543" s="15"/>
       <c r="E543" s="15"/>
       <c r="F543" s="15"/>
-      <c r="G543" s="31"/>
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -29357,7 +28979,6 @@
       <c r="D544" s="15"/>
       <c r="E544" s="15"/>
       <c r="F544" s="15"/>
-      <c r="G544" s="31"/>
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -29380,7 +29001,6 @@
       <c r="D545" s="15"/>
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
-      <c r="G545" s="31"/>
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -29403,7 +29023,6 @@
       <c r="D546" s="15"/>
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
-      <c r="G546" s="31"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -29426,7 +29045,6 @@
       <c r="D547" s="15"/>
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
-      <c r="G547" s="31"/>
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -29449,7 +29067,6 @@
       <c r="D548" s="15"/>
       <c r="E548" s="15"/>
       <c r="F548" s="15"/>
-      <c r="G548" s="31"/>
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -29472,7 +29089,6 @@
       <c r="D549" s="15"/>
       <c r="E549" s="15"/>
       <c r="F549" s="15"/>
-      <c r="G549" s="31"/>
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -29495,7 +29111,6 @@
       <c r="D550" s="15"/>
       <c r="E550" s="15"/>
       <c r="F550" s="15"/>
-      <c r="G550" s="31"/>
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -29518,7 +29133,6 @@
       <c r="D551" s="15"/>
       <c r="E551" s="15"/>
       <c r="F551" s="15"/>
-      <c r="G551" s="31"/>
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -29541,7 +29155,6 @@
       <c r="D552" s="15"/>
       <c r="E552" s="15"/>
       <c r="F552" s="15"/>
-      <c r="G552" s="31"/>
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -29564,7 +29177,6 @@
       <c r="D553" s="15"/>
       <c r="E553" s="15"/>
       <c r="F553" s="15"/>
-      <c r="G553" s="31"/>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
@@ -29587,7 +29199,6 @@
       <c r="D554" s="15"/>
       <c r="E554" s="15"/>
       <c r="F554" s="15"/>
-      <c r="G554" s="31"/>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
@@ -29610,7 +29221,6 @@
       <c r="D555" s="15"/>
       <c r="E555" s="15"/>
       <c r="F555" s="15"/>
-      <c r="G555" s="31"/>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
@@ -29633,7 +29243,6 @@
       <c r="D556" s="15"/>
       <c r="E556" s="15"/>
       <c r="F556" s="15"/>
-      <c r="G556" s="31"/>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
@@ -29656,7 +29265,6 @@
       <c r="D557" s="15"/>
       <c r="E557" s="15"/>
       <c r="F557" s="15"/>
-      <c r="G557" s="31"/>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
@@ -29679,7 +29287,6 @@
       <c r="D558" s="15"/>
       <c r="E558" s="15"/>
       <c r="F558" s="15"/>
-      <c r="G558" s="31"/>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
@@ -29702,7 +29309,6 @@
       <c r="D559" s="15"/>
       <c r="E559" s="15"/>
       <c r="F559" s="15"/>
-      <c r="G559" s="31"/>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
@@ -29725,7 +29331,6 @@
       <c r="D560" s="15"/>
       <c r="E560" s="15"/>
       <c r="F560" s="15"/>
-      <c r="G560" s="31"/>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
@@ -29748,7 +29353,6 @@
       <c r="D561" s="15"/>
       <c r="E561" s="15"/>
       <c r="F561" s="15"/>
-      <c r="G561" s="31"/>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
@@ -29771,7 +29375,6 @@
       <c r="D562" s="15"/>
       <c r="E562" s="15"/>
       <c r="F562" s="15"/>
-      <c r="G562" s="31"/>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
@@ -29794,7 +29397,6 @@
       <c r="D563" s="15"/>
       <c r="E563" s="15"/>
       <c r="F563" s="15"/>
-      <c r="G563" s="31"/>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
@@ -29817,7 +29419,6 @@
       <c r="D564" s="15"/>
       <c r="E564" s="15"/>
       <c r="F564" s="15"/>
-      <c r="G564" s="31"/>
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -29840,7 +29441,6 @@
       <c r="D565" s="15"/>
       <c r="E565" s="15"/>
       <c r="F565" s="15"/>
-      <c r="G565" s="31"/>
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -29863,7 +29463,6 @@
       <c r="D566" s="15"/>
       <c r="E566" s="15"/>
       <c r="F566" s="15"/>
-      <c r="G566" s="31"/>
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -29886,7 +29485,6 @@
       <c r="D567" s="15"/>
       <c r="E567" s="15"/>
       <c r="F567" s="15"/>
-      <c r="G567" s="31"/>
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -29909,7 +29507,6 @@
       <c r="D568" s="15"/>
       <c r="E568" s="15"/>
       <c r="F568" s="15"/>
-      <c r="G568" s="31"/>
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -29932,7 +29529,6 @@
       <c r="D569" s="15"/>
       <c r="E569" s="15"/>
       <c r="F569" s="15"/>
-      <c r="G569" s="31"/>
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -29955,7 +29551,6 @@
       <c r="D570" s="15"/>
       <c r="E570" s="15"/>
       <c r="F570" s="15"/>
-      <c r="G570" s="31"/>
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -29978,7 +29573,6 @@
       <c r="D571" s="15"/>
       <c r="E571" s="15"/>
       <c r="F571" s="15"/>
-      <c r="G571" s="31"/>
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -30001,7 +29595,6 @@
       <c r="D572" s="15"/>
       <c r="E572" s="15"/>
       <c r="F572" s="15"/>
-      <c r="G572" s="31"/>
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -30024,7 +29617,6 @@
       <c r="D573" s="15"/>
       <c r="E573" s="15"/>
       <c r="F573" s="15"/>
-      <c r="G573" s="31"/>
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -30047,7 +29639,6 @@
       <c r="D574" s="15"/>
       <c r="E574" s="15"/>
       <c r="F574" s="15"/>
-      <c r="G574" s="31"/>
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -30070,7 +29661,6 @@
       <c r="D575" s="15"/>
       <c r="E575" s="15"/>
       <c r="F575" s="15"/>
-      <c r="G575" s="31"/>
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -30093,7 +29683,6 @@
       <c r="D576" s="15"/>
       <c r="E576" s="15"/>
       <c r="F576" s="15"/>
-      <c r="G576" s="31"/>
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -30116,7 +29705,6 @@
       <c r="D577" s="15"/>
       <c r="E577" s="15"/>
       <c r="F577" s="15"/>
-      <c r="G577" s="31"/>
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -30139,7 +29727,6 @@
       <c r="D578" s="15"/>
       <c r="E578" s="15"/>
       <c r="F578" s="15"/>
-      <c r="G578" s="31"/>
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -30162,7 +29749,6 @@
       <c r="D579" s="15"/>
       <c r="E579" s="15"/>
       <c r="F579" s="15"/>
-      <c r="G579" s="31"/>
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -30185,7 +29771,6 @@
       <c r="D580" s="15"/>
       <c r="E580" s="15"/>
       <c r="F580" s="15"/>
-      <c r="G580" s="31"/>
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -30208,7 +29793,6 @@
       <c r="D581" s="15"/>
       <c r="E581" s="15"/>
       <c r="F581" s="15"/>
-      <c r="G581" s="31"/>
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -30231,7 +29815,6 @@
       <c r="D582" s="15"/>
       <c r="E582" s="15"/>
       <c r="F582" s="15"/>
-      <c r="G582" s="31"/>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
@@ -30254,7 +29837,6 @@
       <c r="D583" s="15"/>
       <c r="E583" s="15"/>
       <c r="F583" s="15"/>
-      <c r="G583" s="31"/>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
@@ -30277,7 +29859,6 @@
       <c r="D584" s="15"/>
       <c r="E584" s="15"/>
       <c r="F584" s="15"/>
-      <c r="G584" s="31"/>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
@@ -30300,7 +29881,6 @@
       <c r="D585" s="15"/>
       <c r="E585" s="15"/>
       <c r="F585" s="15"/>
-      <c r="G585" s="31"/>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
@@ -30323,7 +29903,6 @@
       <c r="D586" s="15"/>
       <c r="E586" s="15"/>
       <c r="F586" s="15"/>
-      <c r="G586" s="31"/>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
@@ -30346,7 +29925,6 @@
       <c r="D587" s="15"/>
       <c r="E587" s="15"/>
       <c r="F587" s="15"/>
-      <c r="G587" s="31"/>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
@@ -30369,7 +29947,6 @@
       <c r="D588" s="15"/>
       <c r="E588" s="15"/>
       <c r="F588" s="15"/>
-      <c r="G588" s="31"/>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
@@ -30392,7 +29969,6 @@
       <c r="D589" s="15"/>
       <c r="E589" s="15"/>
       <c r="F589" s="15"/>
-      <c r="G589" s="31"/>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
@@ -30415,7 +29991,6 @@
       <c r="D590" s="15"/>
       <c r="E590" s="15"/>
       <c r="F590" s="15"/>
-      <c r="G590" s="31"/>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
@@ -30438,7 +30013,6 @@
       <c r="D591" s="15"/>
       <c r="E591" s="15"/>
       <c r="F591" s="15"/>
-      <c r="G591" s="31"/>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
@@ -30461,7 +30035,6 @@
       <c r="D592" s="15"/>
       <c r="E592" s="15"/>
       <c r="F592" s="15"/>
-      <c r="G592" s="31"/>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
@@ -30484,7 +30057,6 @@
       <c r="D593" s="15"/>
       <c r="E593" s="15"/>
       <c r="F593" s="15"/>
-      <c r="G593" s="31"/>
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
@@ -30507,7 +30079,6 @@
       <c r="D594" s="15"/>
       <c r="E594" s="15"/>
       <c r="F594" s="15"/>
-      <c r="G594" s="31"/>
       <c r="H594" s="1"/>
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
@@ -30530,7 +30101,6 @@
       <c r="D595" s="15"/>
       <c r="E595" s="15"/>
       <c r="F595" s="15"/>
-      <c r="G595" s="31"/>
       <c r="H595" s="1"/>
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
@@ -30553,7 +30123,6 @@
       <c r="D596" s="15"/>
       <c r="E596" s="15"/>
       <c r="F596" s="15"/>
-      <c r="G596" s="31"/>
       <c r="H596" s="1"/>
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
@@ -30576,7 +30145,6 @@
       <c r="D597" s="15"/>
       <c r="E597" s="15"/>
       <c r="F597" s="15"/>
-      <c r="G597" s="31"/>
       <c r="H597" s="1"/>
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
@@ -30599,7 +30167,6 @@
       <c r="D598" s="15"/>
       <c r="E598" s="15"/>
       <c r="F598" s="15"/>
-      <c r="G598" s="31"/>
       <c r="H598" s="1"/>
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
@@ -30622,7 +30189,6 @@
       <c r="D599" s="15"/>
       <c r="E599" s="15"/>
       <c r="F599" s="15"/>
-      <c r="G599" s="31"/>
       <c r="H599" s="1"/>
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
@@ -30645,7 +30211,6 @@
       <c r="D600" s="15"/>
       <c r="E600" s="15"/>
       <c r="F600" s="15"/>
-      <c r="G600" s="31"/>
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
@@ -30668,7 +30233,6 @@
       <c r="D601" s="15"/>
       <c r="E601" s="15"/>
       <c r="F601" s="15"/>
-      <c r="G601" s="31"/>
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
@@ -30691,7 +30255,6 @@
       <c r="D602" s="15"/>
       <c r="E602" s="15"/>
       <c r="F602" s="15"/>
-      <c r="G602" s="31"/>
       <c r="H602" s="1"/>
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
@@ -30714,7 +30277,6 @@
       <c r="D603" s="15"/>
       <c r="E603" s="15"/>
       <c r="F603" s="15"/>
-      <c r="G603" s="31"/>
       <c r="H603" s="1"/>
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
@@ -30737,7 +30299,6 @@
       <c r="D604" s="15"/>
       <c r="E604" s="15"/>
       <c r="F604" s="15"/>
-      <c r="G604" s="31"/>
       <c r="H604" s="1"/>
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
@@ -30760,7 +30321,6 @@
       <c r="D605" s="15"/>
       <c r="E605" s="15"/>
       <c r="F605" s="15"/>
-      <c r="G605" s="31"/>
       <c r="H605" s="1"/>
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
@@ -30783,7 +30343,6 @@
       <c r="D606" s="15"/>
       <c r="E606" s="15"/>
       <c r="F606" s="15"/>
-      <c r="G606" s="31"/>
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
@@ -30806,7 +30365,6 @@
       <c r="D607" s="15"/>
       <c r="E607" s="15"/>
       <c r="F607" s="15"/>
-      <c r="G607" s="31"/>
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
@@ -30829,7 +30387,6 @@
       <c r="D608" s="15"/>
       <c r="E608" s="15"/>
       <c r="F608" s="15"/>
-      <c r="G608" s="31"/>
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
@@ -30852,7 +30409,6 @@
       <c r="D609" s="15"/>
       <c r="E609" s="15"/>
       <c r="F609" s="15"/>
-      <c r="G609" s="31"/>
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
@@ -30875,7 +30431,6 @@
       <c r="D610" s="15"/>
       <c r="E610" s="15"/>
       <c r="F610" s="15"/>
-      <c r="G610" s="31"/>
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
@@ -30898,7 +30453,6 @@
       <c r="D611" s="15"/>
       <c r="E611" s="15"/>
       <c r="F611" s="15"/>
-      <c r="G611" s="31"/>
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
@@ -30921,7 +30475,6 @@
       <c r="D612" s="15"/>
       <c r="E612" s="15"/>
       <c r="F612" s="15"/>
-      <c r="G612" s="31"/>
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
@@ -30944,7 +30497,6 @@
       <c r="D613" s="15"/>
       <c r="E613" s="15"/>
       <c r="F613" s="15"/>
-      <c r="G613" s="31"/>
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
@@ -30967,7 +30519,6 @@
       <c r="D614" s="15"/>
       <c r="E614" s="15"/>
       <c r="F614" s="15"/>
-      <c r="G614" s="31"/>
       <c r="H614" s="1"/>
       <c r="I614" s="1"/>
       <c r="J614" s="1"/>
@@ -30990,7 +30541,6 @@
       <c r="D615" s="15"/>
       <c r="E615" s="15"/>
       <c r="F615" s="15"/>
-      <c r="G615" s="31"/>
       <c r="H615" s="1"/>
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
@@ -31013,7 +30563,6 @@
       <c r="D616" s="15"/>
       <c r="E616" s="15"/>
       <c r="F616" s="15"/>
-      <c r="G616" s="31"/>
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
@@ -31036,7 +30585,6 @@
       <c r="D617" s="15"/>
       <c r="E617" s="15"/>
       <c r="F617" s="15"/>
-      <c r="G617" s="31"/>
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
@@ -31059,7 +30607,6 @@
       <c r="D618" s="15"/>
       <c r="E618" s="15"/>
       <c r="F618" s="15"/>
-      <c r="G618" s="31"/>
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
@@ -31082,7 +30629,6 @@
       <c r="D619" s="15"/>
       <c r="E619" s="15"/>
       <c r="F619" s="15"/>
-      <c r="G619" s="31"/>
       <c r="H619" s="1"/>
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
@@ -31105,7 +30651,6 @@
       <c r="D620" s="15"/>
       <c r="E620" s="15"/>
       <c r="F620" s="15"/>
-      <c r="G620" s="31"/>
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
@@ -31128,7 +30673,6 @@
       <c r="D621" s="15"/>
       <c r="E621" s="15"/>
       <c r="F621" s="15"/>
-      <c r="G621" s="31"/>
       <c r="H621" s="1"/>
       <c r="I621" s="1"/>
       <c r="J621" s="1"/>
@@ -31151,7 +30695,6 @@
       <c r="D622" s="15"/>
       <c r="E622" s="15"/>
       <c r="F622" s="15"/>
-      <c r="G622" s="31"/>
       <c r="H622" s="1"/>
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
@@ -31174,7 +30717,6 @@
       <c r="D623" s="15"/>
       <c r="E623" s="15"/>
       <c r="F623" s="15"/>
-      <c r="G623" s="31"/>
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
@@ -31197,7 +30739,6 @@
       <c r="D624" s="15"/>
       <c r="E624" s="15"/>
       <c r="F624" s="15"/>
-      <c r="G624" s="31"/>
       <c r="H624" s="1"/>
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
@@ -31220,7 +30761,6 @@
       <c r="D625" s="15"/>
       <c r="E625" s="15"/>
       <c r="F625" s="15"/>
-      <c r="G625" s="31"/>
       <c r="H625" s="1"/>
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
@@ -31243,7 +30783,6 @@
       <c r="D626" s="15"/>
       <c r="E626" s="15"/>
       <c r="F626" s="15"/>
-      <c r="G626" s="31"/>
       <c r="H626" s="1"/>
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
@@ -31266,7 +30805,6 @@
       <c r="D627" s="15"/>
       <c r="E627" s="15"/>
       <c r="F627" s="15"/>
-      <c r="G627" s="31"/>
       <c r="H627" s="1"/>
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
@@ -31289,7 +30827,6 @@
       <c r="D628" s="15"/>
       <c r="E628" s="15"/>
       <c r="F628" s="15"/>
-      <c r="G628" s="31"/>
       <c r="H628" s="1"/>
       <c r="I628" s="1"/>
       <c r="J628" s="1"/>
@@ -31312,7 +30849,6 @@
       <c r="D629" s="15"/>
       <c r="E629" s="15"/>
       <c r="F629" s="15"/>
-      <c r="G629" s="31"/>
       <c r="H629" s="1"/>
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
@@ -31335,7 +30871,6 @@
       <c r="D630" s="15"/>
       <c r="E630" s="15"/>
       <c r="F630" s="15"/>
-      <c r="G630" s="31"/>
       <c r="H630" s="1"/>
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
@@ -31358,7 +30893,6 @@
       <c r="D631" s="15"/>
       <c r="E631" s="15"/>
       <c r="F631" s="15"/>
-      <c r="G631" s="31"/>
       <c r="H631" s="1"/>
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
@@ -31381,7 +30915,6 @@
       <c r="D632" s="15"/>
       <c r="E632" s="15"/>
       <c r="F632" s="15"/>
-      <c r="G632" s="31"/>
       <c r="H632" s="1"/>
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
@@ -31404,7 +30937,6 @@
       <c r="D633" s="15"/>
       <c r="E633" s="15"/>
       <c r="F633" s="15"/>
-      <c r="G633" s="31"/>
       <c r="H633" s="1"/>
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
@@ -31427,7 +30959,6 @@
       <c r="D634" s="15"/>
       <c r="E634" s="15"/>
       <c r="F634" s="15"/>
-      <c r="G634" s="31"/>
       <c r="H634" s="1"/>
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
@@ -31450,7 +30981,6 @@
       <c r="D635" s="15"/>
       <c r="E635" s="15"/>
       <c r="F635" s="15"/>
-      <c r="G635" s="31"/>
       <c r="H635" s="1"/>
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
@@ -31473,7 +31003,6 @@
       <c r="D636" s="15"/>
       <c r="E636" s="15"/>
       <c r="F636" s="15"/>
-      <c r="G636" s="31"/>
       <c r="H636" s="1"/>
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
@@ -31496,7 +31025,6 @@
       <c r="D637" s="15"/>
       <c r="E637" s="15"/>
       <c r="F637" s="15"/>
-      <c r="G637" s="31"/>
       <c r="H637" s="1"/>
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
@@ -31519,7 +31047,6 @@
       <c r="D638" s="15"/>
       <c r="E638" s="15"/>
       <c r="F638" s="15"/>
-      <c r="G638" s="31"/>
       <c r="H638" s="1"/>
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
@@ -31542,7 +31069,6 @@
       <c r="D639" s="15"/>
       <c r="E639" s="15"/>
       <c r="F639" s="15"/>
-      <c r="G639" s="31"/>
       <c r="H639" s="1"/>
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
@@ -31565,7 +31091,6 @@
       <c r="D640" s="15"/>
       <c r="E640" s="15"/>
       <c r="F640" s="15"/>
-      <c r="G640" s="31"/>
       <c r="H640" s="1"/>
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
@@ -31588,7 +31113,6 @@
       <c r="D641" s="15"/>
       <c r="E641" s="15"/>
       <c r="F641" s="15"/>
-      <c r="G641" s="31"/>
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
@@ -31611,7 +31135,6 @@
       <c r="D642" s="15"/>
       <c r="E642" s="15"/>
       <c r="F642" s="15"/>
-      <c r="G642" s="31"/>
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
@@ -31634,7 +31157,6 @@
       <c r="D643" s="15"/>
       <c r="E643" s="15"/>
       <c r="F643" s="15"/>
-      <c r="G643" s="31"/>
       <c r="H643" s="1"/>
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
@@ -31657,7 +31179,6 @@
       <c r="D644" s="15"/>
       <c r="E644" s="15"/>
       <c r="F644" s="15"/>
-      <c r="G644" s="31"/>
       <c r="H644" s="1"/>
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
@@ -31680,7 +31201,6 @@
       <c r="D645" s="15"/>
       <c r="E645" s="15"/>
       <c r="F645" s="15"/>
-      <c r="G645" s="31"/>
       <c r="H645" s="1"/>
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
@@ -31703,7 +31223,6 @@
       <c r="D646" s="15"/>
       <c r="E646" s="15"/>
       <c r="F646" s="15"/>
-      <c r="G646" s="31"/>
       <c r="H646" s="1"/>
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
@@ -31726,7 +31245,6 @@
       <c r="D647" s="15"/>
       <c r="E647" s="15"/>
       <c r="F647" s="15"/>
-      <c r="G647" s="31"/>
       <c r="H647" s="1"/>
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
@@ -31749,7 +31267,6 @@
       <c r="D648" s="15"/>
       <c r="E648" s="15"/>
       <c r="F648" s="15"/>
-      <c r="G648" s="31"/>
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
@@ -31772,7 +31289,6 @@
       <c r="D649" s="15"/>
       <c r="E649" s="15"/>
       <c r="F649" s="15"/>
-      <c r="G649" s="31"/>
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
@@ -31795,7 +31311,6 @@
       <c r="D650" s="15"/>
       <c r="E650" s="15"/>
       <c r="F650" s="15"/>
-      <c r="G650" s="31"/>
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
@@ -31818,7 +31333,6 @@
       <c r="D651" s="15"/>
       <c r="E651" s="15"/>
       <c r="F651" s="15"/>
-      <c r="G651" s="31"/>
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
@@ -31841,7 +31355,6 @@
       <c r="D652" s="15"/>
       <c r="E652" s="15"/>
       <c r="F652" s="15"/>
-      <c r="G652" s="31"/>
       <c r="H652" s="1"/>
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
@@ -31864,7 +31377,6 @@
       <c r="D653" s="15"/>
       <c r="E653" s="15"/>
       <c r="F653" s="15"/>
-      <c r="G653" s="31"/>
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
@@ -31887,7 +31399,6 @@
       <c r="D654" s="15"/>
       <c r="E654" s="15"/>
       <c r="F654" s="15"/>
-      <c r="G654" s="31"/>
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
@@ -31910,7 +31421,6 @@
       <c r="D655" s="15"/>
       <c r="E655" s="15"/>
       <c r="F655" s="15"/>
-      <c r="G655" s="31"/>
       <c r="H655" s="1"/>
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
@@ -31933,7 +31443,6 @@
       <c r="D656" s="15"/>
       <c r="E656" s="15"/>
       <c r="F656" s="15"/>
-      <c r="G656" s="31"/>
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
@@ -31956,7 +31465,6 @@
       <c r="D657" s="15"/>
       <c r="E657" s="15"/>
       <c r="F657" s="15"/>
-      <c r="G657" s="31"/>
       <c r="H657" s="1"/>
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
@@ -31979,7 +31487,6 @@
       <c r="D658" s="15"/>
       <c r="E658" s="15"/>
       <c r="F658" s="15"/>
-      <c r="G658" s="31"/>
       <c r="H658" s="1"/>
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
@@ -32002,7 +31509,6 @@
       <c r="D659" s="15"/>
       <c r="E659" s="15"/>
       <c r="F659" s="15"/>
-      <c r="G659" s="31"/>
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
@@ -32025,7 +31531,6 @@
       <c r="D660" s="15"/>
       <c r="E660" s="15"/>
       <c r="F660" s="15"/>
-      <c r="G660" s="31"/>
       <c r="H660" s="1"/>
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
@@ -32048,7 +31553,6 @@
       <c r="D661" s="15"/>
       <c r="E661" s="15"/>
       <c r="F661" s="15"/>
-      <c r="G661" s="31"/>
       <c r="H661" s="1"/>
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
@@ -32071,7 +31575,6 @@
       <c r="D662" s="15"/>
       <c r="E662" s="15"/>
       <c r="F662" s="15"/>
-      <c r="G662" s="31"/>
       <c r="H662" s="1"/>
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
@@ -32094,7 +31597,6 @@
       <c r="D663" s="15"/>
       <c r="E663" s="15"/>
       <c r="F663" s="15"/>
-      <c r="G663" s="31"/>
       <c r="H663" s="1"/>
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
@@ -32117,7 +31619,6 @@
       <c r="D664" s="15"/>
       <c r="E664" s="15"/>
       <c r="F664" s="15"/>
-      <c r="G664" s="31"/>
       <c r="H664" s="1"/>
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
@@ -32140,7 +31641,6 @@
       <c r="D665" s="15"/>
       <c r="E665" s="15"/>
       <c r="F665" s="15"/>
-      <c r="G665" s="31"/>
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
@@ -32163,7 +31663,6 @@
       <c r="D666" s="15"/>
       <c r="E666" s="15"/>
       <c r="F666" s="15"/>
-      <c r="G666" s="31"/>
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
@@ -32186,7 +31685,6 @@
       <c r="D667" s="15"/>
       <c r="E667" s="15"/>
       <c r="F667" s="15"/>
-      <c r="G667" s="31"/>
       <c r="H667" s="1"/>
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
@@ -32209,7 +31707,6 @@
       <c r="D668" s="15"/>
       <c r="E668" s="15"/>
       <c r="F668" s="15"/>
-      <c r="G668" s="31"/>
       <c r="H668" s="1"/>
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
@@ -32232,7 +31729,6 @@
       <c r="D669" s="15"/>
       <c r="E669" s="15"/>
       <c r="F669" s="15"/>
-      <c r="G669" s="31"/>
       <c r="H669" s="1"/>
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
@@ -32255,7 +31751,6 @@
       <c r="D670" s="15"/>
       <c r="E670" s="15"/>
       <c r="F670" s="15"/>
-      <c r="G670" s="31"/>
       <c r="H670" s="1"/>
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
@@ -32278,7 +31773,6 @@
       <c r="D671" s="15"/>
       <c r="E671" s="15"/>
       <c r="F671" s="15"/>
-      <c r="G671" s="31"/>
       <c r="H671" s="1"/>
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
@@ -32301,7 +31795,6 @@
       <c r="D672" s="15"/>
       <c r="E672" s="15"/>
       <c r="F672" s="15"/>
-      <c r="G672" s="31"/>
       <c r="H672" s="1"/>
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
@@ -32324,7 +31817,6 @@
       <c r="D673" s="15"/>
       <c r="E673" s="15"/>
       <c r="F673" s="15"/>
-      <c r="G673" s="31"/>
       <c r="H673" s="1"/>
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
@@ -32347,7 +31839,6 @@
       <c r="D674" s="15"/>
       <c r="E674" s="15"/>
       <c r="F674" s="15"/>
-      <c r="G674" s="31"/>
       <c r="H674" s="1"/>
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
@@ -32370,7 +31861,6 @@
       <c r="D675" s="15"/>
       <c r="E675" s="15"/>
       <c r="F675" s="15"/>
-      <c r="G675" s="31"/>
       <c r="H675" s="1"/>
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
@@ -32393,7 +31883,6 @@
       <c r="D676" s="15"/>
       <c r="E676" s="15"/>
       <c r="F676" s="15"/>
-      <c r="G676" s="31"/>
       <c r="H676" s="1"/>
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
@@ -32416,7 +31905,6 @@
       <c r="D677" s="15"/>
       <c r="E677" s="15"/>
       <c r="F677" s="15"/>
-      <c r="G677" s="31"/>
       <c r="H677" s="1"/>
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
@@ -32439,7 +31927,6 @@
       <c r="D678" s="15"/>
       <c r="E678" s="15"/>
       <c r="F678" s="15"/>
-      <c r="G678" s="31"/>
       <c r="H678" s="1"/>
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
@@ -32462,7 +31949,6 @@
       <c r="D679" s="15"/>
       <c r="E679" s="15"/>
       <c r="F679" s="15"/>
-      <c r="G679" s="31"/>
       <c r="H679" s="1"/>
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
@@ -32485,7 +31971,6 @@
       <c r="D680" s="15"/>
       <c r="E680" s="15"/>
       <c r="F680" s="15"/>
-      <c r="G680" s="31"/>
       <c r="H680" s="1"/>
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
@@ -32508,7 +31993,6 @@
       <c r="D681" s="15"/>
       <c r="E681" s="15"/>
       <c r="F681" s="15"/>
-      <c r="G681" s="31"/>
       <c r="H681" s="1"/>
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
@@ -32531,7 +32015,6 @@
       <c r="D682" s="15"/>
       <c r="E682" s="15"/>
       <c r="F682" s="15"/>
-      <c r="G682" s="31"/>
       <c r="H682" s="1"/>
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
@@ -32554,7 +32037,6 @@
       <c r="D683" s="15"/>
       <c r="E683" s="15"/>
       <c r="F683" s="15"/>
-      <c r="G683" s="31"/>
       <c r="H683" s="1"/>
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
@@ -32577,7 +32059,6 @@
       <c r="D684" s="15"/>
       <c r="E684" s="15"/>
       <c r="F684" s="15"/>
-      <c r="G684" s="31"/>
       <c r="H684" s="1"/>
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
@@ -32600,7 +32081,6 @@
       <c r="D685" s="15"/>
       <c r="E685" s="15"/>
       <c r="F685" s="15"/>
-      <c r="G685" s="31"/>
       <c r="H685" s="1"/>
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
@@ -32623,7 +32103,6 @@
       <c r="D686" s="15"/>
       <c r="E686" s="15"/>
       <c r="F686" s="15"/>
-      <c r="G686" s="31"/>
       <c r="H686" s="1"/>
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
@@ -32646,7 +32125,6 @@
       <c r="D687" s="15"/>
       <c r="E687" s="15"/>
       <c r="F687" s="15"/>
-      <c r="G687" s="31"/>
       <c r="H687" s="1"/>
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
@@ -32669,7 +32147,6 @@
       <c r="D688" s="15"/>
       <c r="E688" s="15"/>
       <c r="F688" s="15"/>
-      <c r="G688" s="31"/>
       <c r="H688" s="1"/>
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
@@ -32692,7 +32169,6 @@
       <c r="D689" s="15"/>
       <c r="E689" s="15"/>
       <c r="F689" s="15"/>
-      <c r="G689" s="31"/>
       <c r="H689" s="1"/>
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
@@ -32715,7 +32191,6 @@
       <c r="D690" s="15"/>
       <c r="E690" s="15"/>
       <c r="F690" s="15"/>
-      <c r="G690" s="31"/>
       <c r="H690" s="1"/>
       <c r="I690" s="1"/>
       <c r="J690" s="1"/>
@@ -32738,7 +32213,6 @@
       <c r="D691" s="15"/>
       <c r="E691" s="15"/>
       <c r="F691" s="15"/>
-      <c r="G691" s="31"/>
       <c r="H691" s="1"/>
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
@@ -32761,7 +32235,6 @@
       <c r="D692" s="15"/>
       <c r="E692" s="15"/>
       <c r="F692" s="15"/>
-      <c r="G692" s="31"/>
       <c r="H692" s="1"/>
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
@@ -32784,7 +32257,6 @@
       <c r="D693" s="15"/>
       <c r="E693" s="15"/>
       <c r="F693" s="15"/>
-      <c r="G693" s="31"/>
       <c r="H693" s="1"/>
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
@@ -32807,7 +32279,6 @@
       <c r="D694" s="15"/>
       <c r="E694" s="15"/>
       <c r="F694" s="15"/>
-      <c r="G694" s="31"/>
       <c r="H694" s="1"/>
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
@@ -32830,7 +32301,6 @@
       <c r="D695" s="15"/>
       <c r="E695" s="15"/>
       <c r="F695" s="15"/>
-      <c r="G695" s="31"/>
       <c r="H695" s="1"/>
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
@@ -32853,7 +32323,6 @@
       <c r="D696" s="15"/>
       <c r="E696" s="15"/>
       <c r="F696" s="15"/>
-      <c r="G696" s="31"/>
       <c r="H696" s="1"/>
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
@@ -32876,7 +32345,6 @@
       <c r="D697" s="15"/>
       <c r="E697" s="15"/>
       <c r="F697" s="15"/>
-      <c r="G697" s="31"/>
       <c r="H697" s="1"/>
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
@@ -32899,7 +32367,6 @@
       <c r="D698" s="15"/>
       <c r="E698" s="15"/>
       <c r="F698" s="15"/>
-      <c r="G698" s="31"/>
       <c r="H698" s="1"/>
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
@@ -32922,7 +32389,6 @@
       <c r="D699" s="15"/>
       <c r="E699" s="15"/>
       <c r="F699" s="15"/>
-      <c r="G699" s="31"/>
       <c r="H699" s="1"/>
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
@@ -32945,7 +32411,6 @@
       <c r="D700" s="15"/>
       <c r="E700" s="15"/>
       <c r="F700" s="15"/>
-      <c r="G700" s="31"/>
       <c r="H700" s="1"/>
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
@@ -32968,7 +32433,6 @@
       <c r="D701" s="15"/>
       <c r="E701" s="15"/>
       <c r="F701" s="15"/>
-      <c r="G701" s="31"/>
       <c r="H701" s="1"/>
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
@@ -32991,7 +32455,6 @@
       <c r="D702" s="15"/>
       <c r="E702" s="15"/>
       <c r="F702" s="15"/>
-      <c r="G702" s="31"/>
       <c r="H702" s="1"/>
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
@@ -33014,7 +32477,6 @@
       <c r="D703" s="15"/>
       <c r="E703" s="15"/>
       <c r="F703" s="15"/>
-      <c r="G703" s="31"/>
       <c r="H703" s="1"/>
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
@@ -33037,7 +32499,6 @@
       <c r="D704" s="15"/>
       <c r="E704" s="15"/>
       <c r="F704" s="15"/>
-      <c r="G704" s="31"/>
       <c r="H704" s="1"/>
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
@@ -33060,7 +32521,6 @@
       <c r="D705" s="15"/>
       <c r="E705" s="15"/>
       <c r="F705" s="15"/>
-      <c r="G705" s="31"/>
       <c r="H705" s="1"/>
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
@@ -33083,7 +32543,6 @@
       <c r="D706" s="15"/>
       <c r="E706" s="15"/>
       <c r="F706" s="15"/>
-      <c r="G706" s="31"/>
       <c r="H706" s="1"/>
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
@@ -33106,7 +32565,6 @@
       <c r="D707" s="15"/>
       <c r="E707" s="15"/>
       <c r="F707" s="15"/>
-      <c r="G707" s="31"/>
       <c r="H707" s="1"/>
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
@@ -33129,7 +32587,6 @@
       <c r="D708" s="15"/>
       <c r="E708" s="15"/>
       <c r="F708" s="15"/>
-      <c r="G708" s="31"/>
       <c r="H708" s="1"/>
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
@@ -33152,7 +32609,6 @@
       <c r="D709" s="15"/>
       <c r="E709" s="15"/>
       <c r="F709" s="15"/>
-      <c r="G709" s="31"/>
       <c r="H709" s="1"/>
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
@@ -33175,7 +32631,6 @@
       <c r="D710" s="15"/>
       <c r="E710" s="15"/>
       <c r="F710" s="15"/>
-      <c r="G710" s="31"/>
       <c r="H710" s="1"/>
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
@@ -33198,7 +32653,6 @@
       <c r="D711" s="15"/>
       <c r="E711" s="15"/>
       <c r="F711" s="15"/>
-      <c r="G711" s="31"/>
       <c r="H711" s="1"/>
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
@@ -33221,7 +32675,6 @@
       <c r="D712" s="15"/>
       <c r="E712" s="15"/>
       <c r="F712" s="15"/>
-      <c r="G712" s="31"/>
       <c r="H712" s="1"/>
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
@@ -33244,7 +32697,6 @@
       <c r="D713" s="15"/>
       <c r="E713" s="15"/>
       <c r="F713" s="15"/>
-      <c r="G713" s="31"/>
       <c r="H713" s="1"/>
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
@@ -33267,7 +32719,6 @@
       <c r="D714" s="15"/>
       <c r="E714" s="15"/>
       <c r="F714" s="15"/>
-      <c r="G714" s="31"/>
       <c r="H714" s="1"/>
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
@@ -33290,7 +32741,6 @@
       <c r="D715" s="15"/>
       <c r="E715" s="15"/>
       <c r="F715" s="15"/>
-      <c r="G715" s="31"/>
       <c r="H715" s="1"/>
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
@@ -33313,7 +32763,6 @@
       <c r="D716" s="15"/>
       <c r="E716" s="15"/>
       <c r="F716" s="15"/>
-      <c r="G716" s="31"/>
       <c r="H716" s="1"/>
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
@@ -33336,7 +32785,6 @@
       <c r="D717" s="15"/>
       <c r="E717" s="15"/>
       <c r="F717" s="15"/>
-      <c r="G717" s="31"/>
       <c r="H717" s="1"/>
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
@@ -33359,7 +32807,6 @@
       <c r="D718" s="15"/>
       <c r="E718" s="15"/>
       <c r="F718" s="15"/>
-      <c r="G718" s="31"/>
       <c r="H718" s="1"/>
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
@@ -33382,7 +32829,6 @@
       <c r="D719" s="15"/>
       <c r="E719" s="15"/>
       <c r="F719" s="15"/>
-      <c r="G719" s="31"/>
       <c r="H719" s="1"/>
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
@@ -33405,7 +32851,6 @@
       <c r="D720" s="15"/>
       <c r="E720" s="15"/>
       <c r="F720" s="15"/>
-      <c r="G720" s="31"/>
       <c r="H720" s="1"/>
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
@@ -33428,7 +32873,6 @@
       <c r="D721" s="15"/>
       <c r="E721" s="15"/>
       <c r="F721" s="15"/>
-      <c r="G721" s="31"/>
       <c r="H721" s="1"/>
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
@@ -33451,7 +32895,6 @@
       <c r="D722" s="15"/>
       <c r="E722" s="15"/>
       <c r="F722" s="15"/>
-      <c r="G722" s="31"/>
       <c r="H722" s="1"/>
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
@@ -33474,7 +32917,6 @@
       <c r="D723" s="15"/>
       <c r="E723" s="15"/>
       <c r="F723" s="15"/>
-      <c r="G723" s="31"/>
       <c r="H723" s="1"/>
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
@@ -33497,7 +32939,6 @@
       <c r="D724" s="15"/>
       <c r="E724" s="15"/>
       <c r="F724" s="15"/>
-      <c r="G724" s="31"/>
       <c r="H724" s="1"/>
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
@@ -33520,7 +32961,6 @@
       <c r="D725" s="15"/>
       <c r="E725" s="15"/>
       <c r="F725" s="15"/>
-      <c r="G725" s="31"/>
       <c r="H725" s="1"/>
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
@@ -33543,7 +32983,6 @@
       <c r="D726" s="15"/>
       <c r="E726" s="15"/>
       <c r="F726" s="15"/>
-      <c r="G726" s="31"/>
       <c r="H726" s="1"/>
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
@@ -33566,7 +33005,6 @@
       <c r="D727" s="15"/>
       <c r="E727" s="15"/>
       <c r="F727" s="15"/>
-      <c r="G727" s="31"/>
       <c r="H727" s="1"/>
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
@@ -33589,7 +33027,6 @@
       <c r="D728" s="15"/>
       <c r="E728" s="15"/>
       <c r="F728" s="15"/>
-      <c r="G728" s="31"/>
       <c r="H728" s="1"/>
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
@@ -33612,7 +33049,6 @@
       <c r="D729" s="15"/>
       <c r="E729" s="15"/>
       <c r="F729" s="15"/>
-      <c r="G729" s="31"/>
       <c r="H729" s="1"/>
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
@@ -33635,7 +33071,6 @@
       <c r="D730" s="15"/>
       <c r="E730" s="15"/>
       <c r="F730" s="15"/>
-      <c r="G730" s="31"/>
       <c r="H730" s="1"/>
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
@@ -33658,7 +33093,6 @@
       <c r="D731" s="15"/>
       <c r="E731" s="15"/>
       <c r="F731" s="15"/>
-      <c r="G731" s="31"/>
       <c r="H731" s="1"/>
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
@@ -33681,7 +33115,6 @@
       <c r="D732" s="15"/>
       <c r="E732" s="15"/>
       <c r="F732" s="15"/>
-      <c r="G732" s="31"/>
       <c r="H732" s="1"/>
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
@@ -33704,7 +33137,6 @@
       <c r="D733" s="15"/>
       <c r="E733" s="15"/>
       <c r="F733" s="15"/>
-      <c r="G733" s="31"/>
       <c r="H733" s="1"/>
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
@@ -33727,7 +33159,6 @@
       <c r="D734" s="15"/>
       <c r="E734" s="15"/>
       <c r="F734" s="15"/>
-      <c r="G734" s="31"/>
       <c r="H734" s="1"/>
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
@@ -33750,7 +33181,6 @@
       <c r="D735" s="15"/>
       <c r="E735" s="15"/>
       <c r="F735" s="15"/>
-      <c r="G735" s="31"/>
       <c r="H735" s="1"/>
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
@@ -33773,7 +33203,6 @@
       <c r="D736" s="15"/>
       <c r="E736" s="15"/>
       <c r="F736" s="15"/>
-      <c r="G736" s="31"/>
       <c r="H736" s="1"/>
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
@@ -33796,7 +33225,6 @@
       <c r="D737" s="15"/>
       <c r="E737" s="15"/>
       <c r="F737" s="15"/>
-      <c r="G737" s="31"/>
       <c r="H737" s="1"/>
       <c r="I737" s="1"/>
       <c r="J737" s="1"/>
@@ -33819,7 +33247,6 @@
       <c r="D738" s="15"/>
       <c r="E738" s="15"/>
       <c r="F738" s="15"/>
-      <c r="G738" s="31"/>
       <c r="H738" s="1"/>
       <c r="I738" s="1"/>
       <c r="J738" s="1"/>
@@ -33842,7 +33269,6 @@
       <c r="D739" s="15"/>
       <c r="E739" s="15"/>
       <c r="F739" s="15"/>
-      <c r="G739" s="31"/>
       <c r="H739" s="1"/>
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
@@ -33865,7 +33291,6 @@
       <c r="D740" s="15"/>
       <c r="E740" s="15"/>
       <c r="F740" s="15"/>
-      <c r="G740" s="31"/>
       <c r="H740" s="1"/>
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
@@ -33888,7 +33313,6 @@
       <c r="D741" s="15"/>
       <c r="E741" s="15"/>
       <c r="F741" s="15"/>
-      <c r="G741" s="31"/>
       <c r="H741" s="1"/>
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
@@ -33911,7 +33335,6 @@
       <c r="D742" s="15"/>
       <c r="E742" s="15"/>
       <c r="F742" s="15"/>
-      <c r="G742" s="31"/>
       <c r="H742" s="1"/>
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
@@ -33934,7 +33357,6 @@
       <c r="D743" s="15"/>
       <c r="E743" s="15"/>
       <c r="F743" s="15"/>
-      <c r="G743" s="31"/>
       <c r="H743" s="1"/>
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
@@ -33957,7 +33379,6 @@
       <c r="D744" s="15"/>
       <c r="E744" s="15"/>
       <c r="F744" s="15"/>
-      <c r="G744" s="31"/>
       <c r="H744" s="1"/>
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
@@ -33980,7 +33401,6 @@
       <c r="D745" s="15"/>
       <c r="E745" s="15"/>
       <c r="F745" s="15"/>
-      <c r="G745" s="31"/>
       <c r="H745" s="1"/>
       <c r="I745" s="1"/>
       <c r="J745" s="1"/>
@@ -34003,7 +33423,6 @@
       <c r="D746" s="15"/>
       <c r="E746" s="15"/>
       <c r="F746" s="15"/>
-      <c r="G746" s="31"/>
       <c r="H746" s="1"/>
       <c r="I746" s="1"/>
       <c r="J746" s="1"/>
@@ -34026,7 +33445,6 @@
       <c r="D747" s="15"/>
       <c r="E747" s="15"/>
       <c r="F747" s="15"/>
-      <c r="G747" s="31"/>
       <c r="H747" s="1"/>
       <c r="I747" s="1"/>
       <c r="J747" s="1"/>
@@ -34049,7 +33467,6 @@
       <c r="D748" s="15"/>
       <c r="E748" s="15"/>
       <c r="F748" s="15"/>
-      <c r="G748" s="31"/>
       <c r="H748" s="1"/>
       <c r="I748" s="1"/>
       <c r="J748" s="1"/>
@@ -34072,7 +33489,6 @@
       <c r="D749" s="15"/>
       <c r="E749" s="15"/>
       <c r="F749" s="15"/>
-      <c r="G749" s="31"/>
       <c r="H749" s="1"/>
       <c r="I749" s="1"/>
       <c r="J749" s="1"/>
@@ -34095,7 +33511,6 @@
       <c r="D750" s="15"/>
       <c r="E750" s="15"/>
       <c r="F750" s="15"/>
-      <c r="G750" s="31"/>
       <c r="H750" s="1"/>
       <c r="I750" s="1"/>
       <c r="J750" s="1"/>
@@ -34118,7 +33533,6 @@
       <c r="D751" s="15"/>
       <c r="E751" s="15"/>
       <c r="F751" s="15"/>
-      <c r="G751" s="31"/>
       <c r="H751" s="1"/>
       <c r="I751" s="1"/>
       <c r="J751" s="1"/>
@@ -34141,7 +33555,6 @@
       <c r="D752" s="15"/>
       <c r="E752" s="15"/>
       <c r="F752" s="15"/>
-      <c r="G752" s="31"/>
       <c r="H752" s="1"/>
       <c r="I752" s="1"/>
       <c r="J752" s="1"/>
@@ -34164,7 +33577,6 @@
       <c r="D753" s="15"/>
       <c r="E753" s="15"/>
       <c r="F753" s="15"/>
-      <c r="G753" s="31"/>
       <c r="H753" s="1"/>
       <c r="I753" s="1"/>
       <c r="J753" s="1"/>
@@ -34187,7 +33599,6 @@
       <c r="D754" s="15"/>
       <c r="E754" s="15"/>
       <c r="F754" s="15"/>
-      <c r="G754" s="31"/>
       <c r="H754" s="1"/>
       <c r="I754" s="1"/>
       <c r="J754" s="1"/>
@@ -34210,7 +33621,6 @@
       <c r="D755" s="15"/>
       <c r="E755" s="15"/>
       <c r="F755" s="15"/>
-      <c r="G755" s="31"/>
       <c r="H755" s="1"/>
       <c r="I755" s="1"/>
       <c r="J755" s="1"/>
@@ -34233,7 +33643,6 @@
       <c r="D756" s="15"/>
       <c r="E756" s="15"/>
       <c r="F756" s="15"/>
-      <c r="G756" s="31"/>
       <c r="H756" s="1"/>
       <c r="I756" s="1"/>
       <c r="J756" s="1"/>
@@ -34256,7 +33665,6 @@
       <c r="D757" s="15"/>
       <c r="E757" s="15"/>
       <c r="F757" s="15"/>
-      <c r="G757" s="31"/>
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
       <c r="J757" s="1"/>
@@ -34279,7 +33687,6 @@
       <c r="D758" s="15"/>
       <c r="E758" s="15"/>
       <c r="F758" s="15"/>
-      <c r="G758" s="31"/>
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
       <c r="J758" s="1"/>
@@ -34302,7 +33709,6 @@
       <c r="D759" s="15"/>
       <c r="E759" s="15"/>
       <c r="F759" s="15"/>
-      <c r="G759" s="31"/>
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
       <c r="J759" s="1"/>
@@ -34325,7 +33731,6 @@
       <c r="D760" s="15"/>
       <c r="E760" s="15"/>
       <c r="F760" s="15"/>
-      <c r="G760" s="31"/>
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
@@ -34348,7 +33753,6 @@
       <c r="D761" s="15"/>
       <c r="E761" s="15"/>
       <c r="F761" s="15"/>
-      <c r="G761" s="31"/>
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
@@ -34371,7 +33775,6 @@
       <c r="D762" s="15"/>
       <c r="E762" s="15"/>
       <c r="F762" s="15"/>
-      <c r="G762" s="31"/>
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
@@ -34394,7 +33797,6 @@
       <c r="D763" s="15"/>
       <c r="E763" s="15"/>
       <c r="F763" s="15"/>
-      <c r="G763" s="31"/>
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
@@ -34417,7 +33819,6 @@
       <c r="D764" s="15"/>
       <c r="E764" s="15"/>
       <c r="F764" s="15"/>
-      <c r="G764" s="31"/>
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
@@ -34440,7 +33841,6 @@
       <c r="D765" s="15"/>
       <c r="E765" s="15"/>
       <c r="F765" s="15"/>
-      <c r="G765" s="31"/>
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
@@ -34463,7 +33863,6 @@
       <c r="D766" s="15"/>
       <c r="E766" s="15"/>
       <c r="F766" s="15"/>
-      <c r="G766" s="31"/>
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
@@ -34486,7 +33885,6 @@
       <c r="D767" s="15"/>
       <c r="E767" s="15"/>
       <c r="F767" s="15"/>
-      <c r="G767" s="31"/>
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
@@ -34509,7 +33907,6 @@
       <c r="D768" s="15"/>
       <c r="E768" s="15"/>
       <c r="F768" s="15"/>
-      <c r="G768" s="31"/>
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
@@ -34532,7 +33929,6 @@
       <c r="D769" s="15"/>
       <c r="E769" s="15"/>
       <c r="F769" s="15"/>
-      <c r="G769" s="31"/>
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
@@ -34555,7 +33951,6 @@
       <c r="D770" s="15"/>
       <c r="E770" s="15"/>
       <c r="F770" s="15"/>
-      <c r="G770" s="31"/>
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
@@ -34578,7 +33973,6 @@
       <c r="D771" s="15"/>
       <c r="E771" s="15"/>
       <c r="F771" s="15"/>
-      <c r="G771" s="31"/>
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
@@ -34601,7 +33995,6 @@
       <c r="D772" s="15"/>
       <c r="E772" s="15"/>
       <c r="F772" s="15"/>
-      <c r="G772" s="31"/>
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
@@ -34624,7 +34017,6 @@
       <c r="D773" s="15"/>
       <c r="E773" s="15"/>
       <c r="F773" s="15"/>
-      <c r="G773" s="31"/>
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
@@ -34647,7 +34039,6 @@
       <c r="D774" s="15"/>
       <c r="E774" s="15"/>
       <c r="F774" s="15"/>
-      <c r="G774" s="31"/>
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
@@ -34670,7 +34061,6 @@
       <c r="D775" s="15"/>
       <c r="E775" s="15"/>
       <c r="F775" s="15"/>
-      <c r="G775" s="31"/>
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
@@ -34693,7 +34083,6 @@
       <c r="D776" s="15"/>
       <c r="E776" s="15"/>
       <c r="F776" s="15"/>
-      <c r="G776" s="31"/>
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
@@ -34716,7 +34105,6 @@
       <c r="D777" s="15"/>
       <c r="E777" s="15"/>
       <c r="F777" s="15"/>
-      <c r="G777" s="31"/>
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
       <c r="J777" s="1"/>
@@ -34739,7 +34127,6 @@
       <c r="D778" s="15"/>
       <c r="E778" s="15"/>
       <c r="F778" s="15"/>
-      <c r="G778" s="31"/>
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
       <c r="J778" s="1"/>
@@ -34762,7 +34149,6 @@
       <c r="D779" s="15"/>
       <c r="E779" s="15"/>
       <c r="F779" s="15"/>
-      <c r="G779" s="31"/>
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
       <c r="J779" s="1"/>
@@ -34785,7 +34171,6 @@
       <c r="D780" s="15"/>
       <c r="E780" s="15"/>
       <c r="F780" s="15"/>
-      <c r="G780" s="31"/>
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
       <c r="J780" s="1"/>
@@ -34808,7 +34193,6 @@
       <c r="D781" s="15"/>
       <c r="E781" s="15"/>
       <c r="F781" s="15"/>
-      <c r="G781" s="31"/>
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
       <c r="J781" s="1"/>
@@ -34831,7 +34215,6 @@
       <c r="D782" s="15"/>
       <c r="E782" s="15"/>
       <c r="F782" s="15"/>
-      <c r="G782" s="31"/>
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
       <c r="J782" s="1"/>
@@ -34854,7 +34237,6 @@
       <c r="D783" s="15"/>
       <c r="E783" s="15"/>
       <c r="F783" s="15"/>
-      <c r="G783" s="31"/>
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
       <c r="J783" s="1"/>
@@ -34877,7 +34259,6 @@
       <c r="D784" s="15"/>
       <c r="E784" s="15"/>
       <c r="F784" s="15"/>
-      <c r="G784" s="31"/>
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
       <c r="J784" s="1"/>
@@ -34900,7 +34281,6 @@
       <c r="D785" s="15"/>
       <c r="E785" s="15"/>
       <c r="F785" s="15"/>
-      <c r="G785" s="31"/>
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
       <c r="J785" s="1"/>
@@ -34923,7 +34303,6 @@
       <c r="D786" s="15"/>
       <c r="E786" s="15"/>
       <c r="F786" s="15"/>
-      <c r="G786" s="31"/>
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
       <c r="J786" s="1"/>
@@ -34946,7 +34325,6 @@
       <c r="D787" s="15"/>
       <c r="E787" s="15"/>
       <c r="F787" s="15"/>
-      <c r="G787" s="31"/>
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
       <c r="J787" s="1"/>
@@ -34969,7 +34347,6 @@
       <c r="D788" s="15"/>
       <c r="E788" s="15"/>
       <c r="F788" s="15"/>
-      <c r="G788" s="31"/>
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
       <c r="J788" s="1"/>
@@ -34992,7 +34369,6 @@
       <c r="D789" s="15"/>
       <c r="E789" s="15"/>
       <c r="F789" s="15"/>
-      <c r="G789" s="31"/>
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
       <c r="J789" s="1"/>
@@ -35015,7 +34391,6 @@
       <c r="D790" s="15"/>
       <c r="E790" s="15"/>
       <c r="F790" s="15"/>
-      <c r="G790" s="31"/>
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
       <c r="J790" s="1"/>
@@ -35038,7 +34413,6 @@
       <c r="D791" s="15"/>
       <c r="E791" s="15"/>
       <c r="F791" s="15"/>
-      <c r="G791" s="31"/>
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
       <c r="J791" s="1"/>
@@ -35061,7 +34435,6 @@
       <c r="D792" s="15"/>
       <c r="E792" s="15"/>
       <c r="F792" s="15"/>
-      <c r="G792" s="31"/>
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
       <c r="J792" s="1"/>
@@ -35084,7 +34457,6 @@
       <c r="D793" s="15"/>
       <c r="E793" s="15"/>
       <c r="F793" s="15"/>
-      <c r="G793" s="31"/>
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
       <c r="J793" s="1"/>
@@ -35107,7 +34479,6 @@
       <c r="D794" s="15"/>
       <c r="E794" s="15"/>
       <c r="F794" s="15"/>
-      <c r="G794" s="31"/>
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
       <c r="J794" s="1"/>
@@ -35130,7 +34501,6 @@
       <c r="D795" s="15"/>
       <c r="E795" s="15"/>
       <c r="F795" s="15"/>
-      <c r="G795" s="31"/>
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
       <c r="J795" s="1"/>
@@ -35153,7 +34523,6 @@
       <c r="D796" s="15"/>
       <c r="E796" s="15"/>
       <c r="F796" s="15"/>
-      <c r="G796" s="31"/>
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
       <c r="J796" s="1"/>
@@ -35176,7 +34545,6 @@
       <c r="D797" s="15"/>
       <c r="E797" s="15"/>
       <c r="F797" s="15"/>
-      <c r="G797" s="31"/>
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
       <c r="J797" s="1"/>
@@ -35199,7 +34567,6 @@
       <c r="D798" s="15"/>
       <c r="E798" s="15"/>
       <c r="F798" s="15"/>
-      <c r="G798" s="31"/>
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
       <c r="J798" s="1"/>
@@ -35222,7 +34589,6 @@
       <c r="D799" s="15"/>
       <c r="E799" s="15"/>
       <c r="F799" s="15"/>
-      <c r="G799" s="31"/>
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
       <c r="J799" s="1"/>
@@ -35245,7 +34611,6 @@
       <c r="D800" s="15"/>
       <c r="E800" s="15"/>
       <c r="F800" s="15"/>
-      <c r="G800" s="31"/>
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
       <c r="J800" s="1"/>
@@ -35268,7 +34633,6 @@
       <c r="D801" s="15"/>
       <c r="E801" s="15"/>
       <c r="F801" s="15"/>
-      <c r="G801" s="31"/>
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
       <c r="J801" s="1"/>
@@ -35291,7 +34655,6 @@
       <c r="D802" s="15"/>
       <c r="E802" s="15"/>
       <c r="F802" s="15"/>
-      <c r="G802" s="31"/>
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
       <c r="J802" s="1"/>
@@ -35314,7 +34677,6 @@
       <c r="D803" s="15"/>
       <c r="E803" s="15"/>
       <c r="F803" s="15"/>
-      <c r="G803" s="31"/>
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
       <c r="J803" s="1"/>
@@ -35337,7 +34699,6 @@
       <c r="D804" s="15"/>
       <c r="E804" s="15"/>
       <c r="F804" s="15"/>
-      <c r="G804" s="31"/>
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
       <c r="J804" s="1"/>
@@ -35360,7 +34721,6 @@
       <c r="D805" s="15"/>
       <c r="E805" s="15"/>
       <c r="F805" s="15"/>
-      <c r="G805" s="31"/>
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
       <c r="J805" s="1"/>
@@ -35383,7 +34743,6 @@
       <c r="D806" s="15"/>
       <c r="E806" s="15"/>
       <c r="F806" s="15"/>
-      <c r="G806" s="31"/>
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
       <c r="J806" s="1"/>
@@ -35406,7 +34765,6 @@
       <c r="D807" s="15"/>
       <c r="E807" s="15"/>
       <c r="F807" s="15"/>
-      <c r="G807" s="31"/>
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
       <c r="J807" s="1"/>
@@ -35429,7 +34787,6 @@
       <c r="D808" s="15"/>
       <c r="E808" s="15"/>
       <c r="F808" s="15"/>
-      <c r="G808" s="31"/>
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
       <c r="J808" s="1"/>
@@ -35452,7 +34809,6 @@
       <c r="D809" s="15"/>
       <c r="E809" s="15"/>
       <c r="F809" s="15"/>
-      <c r="G809" s="31"/>
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
       <c r="J809" s="1"/>
@@ -35475,7 +34831,6 @@
       <c r="D810" s="15"/>
       <c r="E810" s="15"/>
       <c r="F810" s="15"/>
-      <c r="G810" s="31"/>
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
       <c r="J810" s="1"/>
@@ -35498,7 +34853,6 @@
       <c r="D811" s="15"/>
       <c r="E811" s="15"/>
       <c r="F811" s="15"/>
-      <c r="G811" s="31"/>
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
       <c r="J811" s="1"/>
@@ -35521,7 +34875,6 @@
       <c r="D812" s="15"/>
       <c r="E812" s="15"/>
       <c r="F812" s="15"/>
-      <c r="G812" s="31"/>
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
       <c r="J812" s="1"/>
@@ -35544,7 +34897,6 @@
       <c r="D813" s="15"/>
       <c r="E813" s="15"/>
       <c r="F813" s="15"/>
-      <c r="G813" s="31"/>
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
       <c r="J813" s="1"/>
@@ -35567,7 +34919,6 @@
       <c r="D814" s="15"/>
       <c r="E814" s="15"/>
       <c r="F814" s="15"/>
-      <c r="G814" s="31"/>
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
       <c r="J814" s="1"/>
@@ -35590,7 +34941,6 @@
       <c r="D815" s="15"/>
       <c r="E815" s="15"/>
       <c r="F815" s="15"/>
-      <c r="G815" s="31"/>
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
       <c r="J815" s="1"/>
@@ -35613,7 +34963,6 @@
       <c r="D816" s="15"/>
       <c r="E816" s="15"/>
       <c r="F816" s="15"/>
-      <c r="G816" s="31"/>
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
       <c r="J816" s="1"/>
@@ -35636,7 +34985,6 @@
       <c r="D817" s="15"/>
       <c r="E817" s="15"/>
       <c r="F817" s="15"/>
-      <c r="G817" s="31"/>
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
       <c r="J817" s="1"/>
@@ -35659,7 +35007,6 @@
       <c r="D818" s="15"/>
       <c r="E818" s="15"/>
       <c r="F818" s="15"/>
-      <c r="G818" s="31"/>
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
       <c r="J818" s="1"/>
@@ -35682,7 +35029,6 @@
       <c r="D819" s="15"/>
       <c r="E819" s="15"/>
       <c r="F819" s="15"/>
-      <c r="G819" s="31"/>
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
       <c r="J819" s="1"/>
@@ -35705,7 +35051,6 @@
       <c r="D820" s="15"/>
       <c r="E820" s="15"/>
       <c r="F820" s="15"/>
-      <c r="G820" s="31"/>
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
       <c r="J820" s="1"/>
@@ -35728,7 +35073,6 @@
       <c r="D821" s="15"/>
       <c r="E821" s="15"/>
       <c r="F821" s="15"/>
-      <c r="G821" s="31"/>
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
       <c r="J821" s="1"/>
@@ -35751,7 +35095,6 @@
       <c r="D822" s="15"/>
       <c r="E822" s="15"/>
       <c r="F822" s="15"/>
-      <c r="G822" s="31"/>
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
       <c r="J822" s="1"/>
@@ -35774,7 +35117,6 @@
       <c r="D823" s="15"/>
       <c r="E823" s="15"/>
       <c r="F823" s="15"/>
-      <c r="G823" s="31"/>
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
       <c r="J823" s="1"/>
@@ -35797,7 +35139,6 @@
       <c r="D824" s="15"/>
       <c r="E824" s="15"/>
       <c r="F824" s="15"/>
-      <c r="G824" s="31"/>
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
@@ -35820,7 +35161,6 @@
       <c r="D825" s="15"/>
       <c r="E825" s="15"/>
       <c r="F825" s="15"/>
-      <c r="G825" s="31"/>
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
@@ -35843,7 +35183,6 @@
       <c r="D826" s="15"/>
       <c r="E826" s="15"/>
       <c r="F826" s="15"/>
-      <c r="G826" s="31"/>
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
@@ -35866,7 +35205,6 @@
       <c r="D827" s="15"/>
       <c r="E827" s="15"/>
       <c r="F827" s="15"/>
-      <c r="G827" s="31"/>
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
@@ -35889,7 +35227,6 @@
       <c r="D828" s="15"/>
       <c r="E828" s="15"/>
       <c r="F828" s="15"/>
-      <c r="G828" s="31"/>
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
@@ -35912,7 +35249,6 @@
       <c r="D829" s="15"/>
       <c r="E829" s="15"/>
       <c r="F829" s="15"/>
-      <c r="G829" s="31"/>
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
@@ -35935,7 +35271,6 @@
       <c r="D830" s="15"/>
       <c r="E830" s="15"/>
       <c r="F830" s="15"/>
-      <c r="G830" s="31"/>
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
@@ -35958,7 +35293,6 @@
       <c r="D831" s="15"/>
       <c r="E831" s="15"/>
       <c r="F831" s="15"/>
-      <c r="G831" s="31"/>
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
@@ -35981,7 +35315,6 @@
       <c r="D832" s="15"/>
       <c r="E832" s="15"/>
       <c r="F832" s="15"/>
-      <c r="G832" s="31"/>
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
@@ -36004,7 +35337,6 @@
       <c r="D833" s="15"/>
       <c r="E833" s="15"/>
       <c r="F833" s="15"/>
-      <c r="G833" s="31"/>
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
@@ -36027,7 +35359,6 @@
       <c r="D834" s="15"/>
       <c r="E834" s="15"/>
       <c r="F834" s="15"/>
-      <c r="G834" s="31"/>
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
@@ -36050,7 +35381,6 @@
       <c r="D835" s="15"/>
       <c r="E835" s="15"/>
       <c r="F835" s="15"/>
-      <c r="G835" s="31"/>
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
@@ -36073,7 +35403,6 @@
       <c r="D836" s="15"/>
       <c r="E836" s="15"/>
       <c r="F836" s="15"/>
-      <c r="G836" s="31"/>
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
@@ -36096,7 +35425,6 @@
       <c r="D837" s="15"/>
       <c r="E837" s="15"/>
       <c r="F837" s="15"/>
-      <c r="G837" s="31"/>
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
@@ -36119,7 +35447,6 @@
       <c r="D838" s="15"/>
       <c r="E838" s="15"/>
       <c r="F838" s="15"/>
-      <c r="G838" s="31"/>
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
@@ -36142,7 +35469,6 @@
       <c r="D839" s="15"/>
       <c r="E839" s="15"/>
       <c r="F839" s="15"/>
-      <c r="G839" s="31"/>
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
@@ -36165,7 +35491,6 @@
       <c r="D840" s="15"/>
       <c r="E840" s="15"/>
       <c r="F840" s="15"/>
-      <c r="G840" s="31"/>
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
@@ -36188,7 +35513,6 @@
       <c r="D841" s="15"/>
       <c r="E841" s="15"/>
       <c r="F841" s="15"/>
-      <c r="G841" s="31"/>
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
       <c r="J841" s="1"/>
@@ -36211,7 +35535,6 @@
       <c r="D842" s="15"/>
       <c r="E842" s="15"/>
       <c r="F842" s="15"/>
-      <c r="G842" s="31"/>
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
       <c r="J842" s="1"/>
@@ -36234,7 +35557,6 @@
       <c r="D843" s="15"/>
       <c r="E843" s="15"/>
       <c r="F843" s="15"/>
-      <c r="G843" s="31"/>
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
       <c r="J843" s="1"/>
@@ -36257,7 +35579,6 @@
       <c r="D844" s="15"/>
       <c r="E844" s="15"/>
       <c r="F844" s="15"/>
-      <c r="G844" s="31"/>
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
       <c r="J844" s="1"/>
@@ -36280,7 +35601,6 @@
       <c r="D845" s="15"/>
       <c r="E845" s="15"/>
       <c r="F845" s="15"/>
-      <c r="G845" s="31"/>
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
       <c r="J845" s="1"/>
@@ -36303,7 +35623,6 @@
       <c r="D846" s="15"/>
       <c r="E846" s="15"/>
       <c r="F846" s="15"/>
-      <c r="G846" s="31"/>
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
       <c r="J846" s="1"/>
@@ -36326,7 +35645,6 @@
       <c r="D847" s="15"/>
       <c r="E847" s="15"/>
       <c r="F847" s="15"/>
-      <c r="G847" s="31"/>
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
       <c r="J847" s="1"/>
@@ -36349,7 +35667,6 @@
       <c r="D848" s="15"/>
       <c r="E848" s="15"/>
       <c r="F848" s="15"/>
-      <c r="G848" s="31"/>
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
       <c r="J848" s="1"/>
@@ -36372,7 +35689,6 @@
       <c r="D849" s="15"/>
       <c r="E849" s="15"/>
       <c r="F849" s="15"/>
-      <c r="G849" s="31"/>
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
       <c r="J849" s="1"/>
@@ -36395,7 +35711,6 @@
       <c r="D850" s="15"/>
       <c r="E850" s="15"/>
       <c r="F850" s="15"/>
-      <c r="G850" s="31"/>
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
       <c r="J850" s="1"/>
@@ -36418,7 +35733,6 @@
       <c r="D851" s="15"/>
       <c r="E851" s="15"/>
       <c r="F851" s="15"/>
-      <c r="G851" s="31"/>
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
       <c r="J851" s="1"/>
@@ -36441,7 +35755,6 @@
       <c r="D852" s="15"/>
       <c r="E852" s="15"/>
       <c r="F852" s="15"/>
-      <c r="G852" s="31"/>
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
       <c r="J852" s="1"/>
@@ -36464,7 +35777,6 @@
       <c r="D853" s="15"/>
       <c r="E853" s="15"/>
       <c r="F853" s="15"/>
-      <c r="G853" s="31"/>
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
       <c r="J853" s="1"/>
@@ -36487,7 +35799,6 @@
       <c r="D854" s="15"/>
       <c r="E854" s="15"/>
       <c r="F854" s="15"/>
-      <c r="G854" s="31"/>
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
       <c r="J854" s="1"/>
@@ -36510,7 +35821,6 @@
       <c r="D855" s="15"/>
       <c r="E855" s="15"/>
       <c r="F855" s="15"/>
-      <c r="G855" s="31"/>
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
       <c r="J855" s="1"/>
@@ -36533,7 +35843,6 @@
       <c r="D856" s="15"/>
       <c r="E856" s="15"/>
       <c r="F856" s="15"/>
-      <c r="G856" s="31"/>
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
       <c r="J856" s="1"/>
@@ -36556,7 +35865,6 @@
       <c r="D857" s="15"/>
       <c r="E857" s="15"/>
       <c r="F857" s="15"/>
-      <c r="G857" s="31"/>
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
       <c r="J857" s="1"/>
@@ -36579,7 +35887,6 @@
       <c r="D858" s="15"/>
       <c r="E858" s="15"/>
       <c r="F858" s="15"/>
-      <c r="G858" s="31"/>
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
       <c r="J858" s="1"/>
@@ -36602,7 +35909,6 @@
       <c r="D859" s="15"/>
       <c r="E859" s="15"/>
       <c r="F859" s="15"/>
-      <c r="G859" s="31"/>
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
       <c r="J859" s="1"/>
@@ -36625,7 +35931,6 @@
       <c r="D860" s="15"/>
       <c r="E860" s="15"/>
       <c r="F860" s="15"/>
-      <c r="G860" s="31"/>
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
       <c r="J860" s="1"/>
@@ -36648,7 +35953,6 @@
       <c r="D861" s="15"/>
       <c r="E861" s="15"/>
       <c r="F861" s="15"/>
-      <c r="G861" s="31"/>
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
       <c r="J861" s="1"/>
@@ -36671,7 +35975,6 @@
       <c r="D862" s="15"/>
       <c r="E862" s="15"/>
       <c r="F862" s="15"/>
-      <c r="G862" s="31"/>
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
       <c r="J862" s="1"/>
@@ -36694,7 +35997,6 @@
       <c r="D863" s="15"/>
       <c r="E863" s="15"/>
       <c r="F863" s="15"/>
-      <c r="G863" s="31"/>
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
       <c r="J863" s="1"/>
@@ -36717,7 +36019,6 @@
       <c r="D864" s="15"/>
       <c r="E864" s="15"/>
       <c r="F864" s="15"/>
-      <c r="G864" s="31"/>
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
       <c r="J864" s="1"/>
@@ -36740,7 +36041,6 @@
       <c r="D865" s="15"/>
       <c r="E865" s="15"/>
       <c r="F865" s="15"/>
-      <c r="G865" s="31"/>
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
       <c r="J865" s="1"/>
@@ -36763,7 +36063,6 @@
       <c r="D866" s="15"/>
       <c r="E866" s="15"/>
       <c r="F866" s="15"/>
-      <c r="G866" s="31"/>
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
       <c r="J866" s="1"/>
@@ -36786,7 +36085,6 @@
       <c r="D867" s="15"/>
       <c r="E867" s="15"/>
       <c r="F867" s="15"/>
-      <c r="G867" s="31"/>
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
       <c r="J867" s="1"/>
@@ -36809,7 +36107,6 @@
       <c r="D868" s="15"/>
       <c r="E868" s="15"/>
       <c r="F868" s="15"/>
-      <c r="G868" s="31"/>
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
       <c r="J868" s="1"/>
@@ -36832,7 +36129,6 @@
       <c r="D869" s="15"/>
       <c r="E869" s="15"/>
       <c r="F869" s="15"/>
-      <c r="G869" s="31"/>
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
       <c r="J869" s="1"/>
@@ -36855,7 +36151,6 @@
       <c r="D870" s="15"/>
       <c r="E870" s="15"/>
       <c r="F870" s="15"/>
-      <c r="G870" s="31"/>
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
       <c r="J870" s="1"/>
@@ -36878,7 +36173,6 @@
       <c r="D871" s="15"/>
       <c r="E871" s="15"/>
       <c r="F871" s="15"/>
-      <c r="G871" s="31"/>
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
       <c r="J871" s="1"/>
@@ -36901,7 +36195,6 @@
       <c r="D872" s="15"/>
       <c r="E872" s="15"/>
       <c r="F872" s="15"/>
-      <c r="G872" s="31"/>
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
       <c r="J872" s="1"/>
@@ -36924,7 +36217,6 @@
       <c r="D873" s="15"/>
       <c r="E873" s="15"/>
       <c r="F873" s="15"/>
-      <c r="G873" s="31"/>
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
       <c r="J873" s="1"/>
@@ -36947,7 +36239,6 @@
       <c r="D874" s="15"/>
       <c r="E874" s="15"/>
       <c r="F874" s="15"/>
-      <c r="G874" s="31"/>
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
       <c r="J874" s="1"/>
@@ -36970,7 +36261,6 @@
       <c r="D875" s="15"/>
       <c r="E875" s="15"/>
       <c r="F875" s="15"/>
-      <c r="G875" s="31"/>
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
       <c r="J875" s="1"/>
@@ -36993,7 +36283,6 @@
       <c r="D876" s="15"/>
       <c r="E876" s="15"/>
       <c r="F876" s="15"/>
-      <c r="G876" s="31"/>
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
       <c r="J876" s="1"/>
@@ -37016,7 +36305,6 @@
       <c r="D877" s="15"/>
       <c r="E877" s="15"/>
       <c r="F877" s="15"/>
-      <c r="G877" s="31"/>
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
       <c r="J877" s="1"/>
@@ -37039,7 +36327,6 @@
       <c r="D878" s="15"/>
       <c r="E878" s="15"/>
       <c r="F878" s="15"/>
-      <c r="G878" s="31"/>
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
       <c r="J878" s="1"/>
@@ -37062,7 +36349,6 @@
       <c r="D879" s="15"/>
       <c r="E879" s="15"/>
       <c r="F879" s="15"/>
-      <c r="G879" s="31"/>
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
       <c r="J879" s="1"/>
@@ -37085,7 +36371,6 @@
       <c r="D880" s="15"/>
       <c r="E880" s="15"/>
       <c r="F880" s="15"/>
-      <c r="G880" s="31"/>
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
       <c r="J880" s="1"/>
@@ -37108,7 +36393,6 @@
       <c r="D881" s="15"/>
       <c r="E881" s="15"/>
       <c r="F881" s="15"/>
-      <c r="G881" s="31"/>
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
       <c r="J881" s="1"/>
@@ -37131,7 +36415,6 @@
       <c r="D882" s="15"/>
       <c r="E882" s="15"/>
       <c r="F882" s="15"/>
-      <c r="G882" s="31"/>
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
       <c r="J882" s="1"/>
@@ -37154,7 +36437,6 @@
       <c r="D883" s="15"/>
       <c r="E883" s="15"/>
       <c r="F883" s="15"/>
-      <c r="G883" s="31"/>
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
       <c r="J883" s="1"/>
@@ -37177,7 +36459,6 @@
       <c r="D884" s="15"/>
       <c r="E884" s="15"/>
       <c r="F884" s="15"/>
-      <c r="G884" s="31"/>
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
       <c r="J884" s="1"/>
@@ -37200,7 +36481,6 @@
       <c r="D885" s="15"/>
       <c r="E885" s="15"/>
       <c r="F885" s="15"/>
-      <c r="G885" s="31"/>
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
@@ -37223,7 +36503,6 @@
       <c r="D886" s="15"/>
       <c r="E886" s="15"/>
       <c r="F886" s="15"/>
-      <c r="G886" s="31"/>
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
       <c r="J886" s="1"/>
@@ -37246,7 +36525,6 @@
       <c r="D887" s="15"/>
       <c r="E887" s="15"/>
       <c r="F887" s="15"/>
-      <c r="G887" s="31"/>
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
       <c r="J887" s="1"/>
@@ -37269,7 +36547,6 @@
       <c r="D888" s="15"/>
       <c r="E888" s="15"/>
       <c r="F888" s="15"/>
-      <c r="G888" s="31"/>
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
@@ -37292,7 +36569,6 @@
       <c r="D889" s="15"/>
       <c r="E889" s="15"/>
       <c r="F889" s="15"/>
-      <c r="G889" s="31"/>
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
@@ -37315,7 +36591,6 @@
       <c r="D890" s="15"/>
       <c r="E890" s="15"/>
       <c r="F890" s="15"/>
-      <c r="G890" s="31"/>
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
@@ -37338,7 +36613,6 @@
       <c r="D891" s="15"/>
       <c r="E891" s="15"/>
       <c r="F891" s="15"/>
-      <c r="G891" s="31"/>
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
@@ -37361,7 +36635,6 @@
       <c r="D892" s="15"/>
       <c r="E892" s="15"/>
       <c r="F892" s="15"/>
-      <c r="G892" s="31"/>
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
@@ -37384,7 +36657,6 @@
       <c r="D893" s="15"/>
       <c r="E893" s="15"/>
       <c r="F893" s="15"/>
-      <c r="G893" s="31"/>
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
@@ -37407,7 +36679,6 @@
       <c r="D894" s="15"/>
       <c r="E894" s="15"/>
       <c r="F894" s="15"/>
-      <c r="G894" s="31"/>
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
@@ -37430,7 +36701,6 @@
       <c r="D895" s="15"/>
       <c r="E895" s="15"/>
       <c r="F895" s="15"/>
-      <c r="G895" s="31"/>
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
@@ -37453,7 +36723,6 @@
       <c r="D896" s="15"/>
       <c r="E896" s="15"/>
       <c r="F896" s="15"/>
-      <c r="G896" s="31"/>
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
@@ -37476,7 +36745,6 @@
       <c r="D897" s="15"/>
       <c r="E897" s="15"/>
       <c r="F897" s="15"/>
-      <c r="G897" s="31"/>
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
@@ -37499,7 +36767,6 @@
       <c r="D898" s="15"/>
       <c r="E898" s="15"/>
       <c r="F898" s="15"/>
-      <c r="G898" s="31"/>
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
@@ -37522,7 +36789,6 @@
       <c r="D899" s="15"/>
       <c r="E899" s="15"/>
       <c r="F899" s="15"/>
-      <c r="G899" s="31"/>
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
@@ -37545,7 +36811,6 @@
       <c r="D900" s="15"/>
       <c r="E900" s="15"/>
       <c r="F900" s="15"/>
-      <c r="G900" s="31"/>
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
@@ -37568,7 +36833,6 @@
       <c r="D901" s="15"/>
       <c r="E901" s="15"/>
       <c r="F901" s="15"/>
-      <c r="G901" s="31"/>
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
@@ -37591,7 +36855,6 @@
       <c r="D902" s="15"/>
       <c r="E902" s="15"/>
       <c r="F902" s="15"/>
-      <c r="G902" s="31"/>
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
@@ -37614,7 +36877,6 @@
       <c r="D903" s="15"/>
       <c r="E903" s="15"/>
       <c r="F903" s="15"/>
-      <c r="G903" s="31"/>
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
@@ -37637,7 +36899,6 @@
       <c r="D904" s="15"/>
       <c r="E904" s="15"/>
       <c r="F904" s="15"/>
-      <c r="G904" s="31"/>
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
@@ -37660,7 +36921,6 @@
       <c r="D905" s="15"/>
       <c r="E905" s="15"/>
       <c r="F905" s="15"/>
-      <c r="G905" s="31"/>
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
       <c r="J905" s="1"/>
@@ -37683,7 +36943,6 @@
       <c r="D906" s="15"/>
       <c r="E906" s="15"/>
       <c r="F906" s="15"/>
-      <c r="G906" s="31"/>
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
       <c r="J906" s="1"/>
@@ -37706,7 +36965,6 @@
       <c r="D907" s="15"/>
       <c r="E907" s="15"/>
       <c r="F907" s="15"/>
-      <c r="G907" s="31"/>
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
       <c r="J907" s="1"/>
@@ -37729,7 +36987,6 @@
       <c r="D908" s="15"/>
       <c r="E908" s="15"/>
       <c r="F908" s="15"/>
-      <c r="G908" s="31"/>
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
       <c r="J908" s="1"/>
@@ -37752,7 +37009,6 @@
       <c r="D909" s="15"/>
       <c r="E909" s="15"/>
       <c r="F909" s="15"/>
-      <c r="G909" s="31"/>
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
       <c r="J909" s="1"/>
@@ -37775,7 +37031,6 @@
       <c r="D910" s="15"/>
       <c r="E910" s="15"/>
       <c r="F910" s="15"/>
-      <c r="G910" s="31"/>
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
       <c r="J910" s="1"/>
@@ -37798,7 +37053,6 @@
       <c r="D911" s="15"/>
       <c r="E911" s="15"/>
       <c r="F911" s="15"/>
-      <c r="G911" s="31"/>
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
       <c r="J911" s="1"/>
@@ -37821,7 +37075,6 @@
       <c r="D912" s="15"/>
       <c r="E912" s="15"/>
       <c r="F912" s="15"/>
-      <c r="G912" s="31"/>
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
       <c r="J912" s="1"/>
@@ -37844,7 +37097,6 @@
       <c r="D913" s="15"/>
       <c r="E913" s="15"/>
       <c r="F913" s="15"/>
-      <c r="G913" s="31"/>
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
       <c r="J913" s="1"/>
@@ -37867,7 +37119,6 @@
       <c r="D914" s="15"/>
       <c r="E914" s="15"/>
       <c r="F914" s="15"/>
-      <c r="G914" s="31"/>
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
       <c r="J914" s="1"/>
@@ -37890,7 +37141,6 @@
       <c r="D915" s="15"/>
       <c r="E915" s="15"/>
       <c r="F915" s="15"/>
-      <c r="G915" s="31"/>
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
       <c r="J915" s="1"/>
@@ -37913,7 +37163,6 @@
       <c r="D916" s="15"/>
       <c r="E916" s="15"/>
       <c r="F916" s="15"/>
-      <c r="G916" s="31"/>
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
       <c r="J916" s="1"/>
@@ -37936,7 +37185,6 @@
       <c r="D917" s="15"/>
       <c r="E917" s="15"/>
       <c r="F917" s="15"/>
-      <c r="G917" s="31"/>
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
       <c r="J917" s="1"/>
@@ -37959,7 +37207,6 @@
       <c r="D918" s="15"/>
       <c r="E918" s="15"/>
       <c r="F918" s="15"/>
-      <c r="G918" s="31"/>
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
       <c r="J918" s="1"/>
@@ -37982,7 +37229,6 @@
       <c r="D919" s="15"/>
       <c r="E919" s="15"/>
       <c r="F919" s="15"/>
-      <c r="G919" s="31"/>
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
       <c r="J919" s="1"/>
@@ -38005,7 +37251,6 @@
       <c r="D920" s="15"/>
       <c r="E920" s="15"/>
       <c r="F920" s="15"/>
-      <c r="G920" s="31"/>
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
       <c r="J920" s="1"/>
@@ -38028,7 +37273,6 @@
       <c r="D921" s="15"/>
       <c r="E921" s="15"/>
       <c r="F921" s="15"/>
-      <c r="G921" s="31"/>
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
       <c r="J921" s="1"/>
@@ -38051,7 +37295,6 @@
       <c r="D922" s="15"/>
       <c r="E922" s="15"/>
       <c r="F922" s="15"/>
-      <c r="G922" s="31"/>
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
       <c r="J922" s="1"/>
@@ -38074,7 +37317,6 @@
       <c r="D923" s="15"/>
       <c r="E923" s="15"/>
       <c r="F923" s="15"/>
-      <c r="G923" s="31"/>
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
       <c r="J923" s="1"/>
@@ -38097,7 +37339,6 @@
       <c r="D924" s="15"/>
       <c r="E924" s="15"/>
       <c r="F924" s="15"/>
-      <c r="G924" s="31"/>
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
       <c r="J924" s="1"/>
@@ -38120,7 +37361,6 @@
       <c r="D925" s="15"/>
       <c r="E925" s="15"/>
       <c r="F925" s="15"/>
-      <c r="G925" s="31"/>
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
       <c r="J925" s="1"/>
@@ -38143,7 +37383,6 @@
       <c r="D926" s="15"/>
       <c r="E926" s="15"/>
       <c r="F926" s="15"/>
-      <c r="G926" s="31"/>
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
       <c r="J926" s="1"/>
@@ -38166,7 +37405,6 @@
       <c r="D927" s="15"/>
       <c r="E927" s="15"/>
       <c r="F927" s="15"/>
-      <c r="G927" s="31"/>
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
       <c r="J927" s="1"/>
@@ -38189,7 +37427,6 @@
       <c r="D928" s="15"/>
       <c r="E928" s="15"/>
       <c r="F928" s="15"/>
-      <c r="G928" s="31"/>
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
       <c r="J928" s="1"/>
@@ -38212,7 +37449,6 @@
       <c r="D929" s="15"/>
       <c r="E929" s="15"/>
       <c r="F929" s="15"/>
-      <c r="G929" s="31"/>
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
       <c r="J929" s="1"/>
@@ -38235,7 +37471,6 @@
       <c r="D930" s="15"/>
       <c r="E930" s="15"/>
       <c r="F930" s="15"/>
-      <c r="G930" s="31"/>
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
       <c r="J930" s="1"/>
@@ -38258,7 +37493,6 @@
       <c r="D931" s="15"/>
       <c r="E931" s="15"/>
       <c r="F931" s="15"/>
-      <c r="G931" s="31"/>
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
       <c r="J931" s="1"/>
@@ -38281,7 +37515,6 @@
       <c r="D932" s="15"/>
       <c r="E932" s="15"/>
       <c r="F932" s="15"/>
-      <c r="G932" s="31"/>
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
       <c r="J932" s="1"/>
@@ -38304,7 +37537,6 @@
       <c r="D933" s="15"/>
       <c r="E933" s="15"/>
       <c r="F933" s="15"/>
-      <c r="G933" s="31"/>
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
       <c r="J933" s="1"/>
@@ -38327,7 +37559,6 @@
       <c r="D934" s="15"/>
       <c r="E934" s="15"/>
       <c r="F934" s="15"/>
-      <c r="G934" s="31"/>
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
       <c r="J934" s="1"/>
@@ -38350,7 +37581,6 @@
       <c r="D935" s="15"/>
       <c r="E935" s="15"/>
       <c r="F935" s="15"/>
-      <c r="G935" s="31"/>
       <c r="H935" s="1"/>
       <c r="I935" s="1"/>
       <c r="J935" s="1"/>
@@ -38373,7 +37603,6 @@
       <c r="D936" s="15"/>
       <c r="E936" s="15"/>
       <c r="F936" s="15"/>
-      <c r="G936" s="31"/>
       <c r="H936" s="1"/>
       <c r="I936" s="1"/>
       <c r="J936" s="1"/>
@@ -38396,7 +37625,6 @@
       <c r="D937" s="15"/>
       <c r="E937" s="15"/>
       <c r="F937" s="15"/>
-      <c r="G937" s="31"/>
       <c r="H937" s="1"/>
       <c r="I937" s="1"/>
       <c r="J937" s="1"/>
@@ -38419,7 +37647,6 @@
       <c r="D938" s="15"/>
       <c r="E938" s="15"/>
       <c r="F938" s="15"/>
-      <c r="G938" s="31"/>
       <c r="H938" s="1"/>
       <c r="I938" s="1"/>
       <c r="J938" s="1"/>
@@ -38442,7 +37669,6 @@
       <c r="D939" s="15"/>
       <c r="E939" s="15"/>
       <c r="F939" s="15"/>
-      <c r="G939" s="31"/>
       <c r="H939" s="1"/>
       <c r="I939" s="1"/>
       <c r="J939" s="1"/>
@@ -38465,7 +37691,6 @@
       <c r="D940" s="15"/>
       <c r="E940" s="15"/>
       <c r="F940" s="15"/>
-      <c r="G940" s="31"/>
       <c r="H940" s="1"/>
       <c r="I940" s="1"/>
       <c r="J940" s="1"/>
@@ -38488,7 +37713,6 @@
       <c r="D941" s="15"/>
       <c r="E941" s="15"/>
       <c r="F941" s="15"/>
-      <c r="G941" s="31"/>
       <c r="H941" s="1"/>
       <c r="I941" s="1"/>
       <c r="J941" s="1"/>
@@ -38511,7 +37735,6 @@
       <c r="D942" s="15"/>
       <c r="E942" s="15"/>
       <c r="F942" s="15"/>
-      <c r="G942" s="31"/>
       <c r="H942" s="1"/>
       <c r="I942" s="1"/>
       <c r="J942" s="1"/>
@@ -38534,7 +37757,6 @@
       <c r="D943" s="15"/>
       <c r="E943" s="15"/>
       <c r="F943" s="15"/>
-      <c r="G943" s="31"/>
       <c r="H943" s="1"/>
       <c r="I943" s="1"/>
       <c r="J943" s="1"/>
@@ -38557,7 +37779,6 @@
       <c r="D944" s="15"/>
       <c r="E944" s="15"/>
       <c r="F944" s="15"/>
-      <c r="G944" s="31"/>
       <c r="H944" s="1"/>
       <c r="I944" s="1"/>
       <c r="J944" s="1"/>
@@ -38580,7 +37801,6 @@
       <c r="D945" s="15"/>
       <c r="E945" s="15"/>
       <c r="F945" s="15"/>
-      <c r="G945" s="31"/>
       <c r="H945" s="1"/>
       <c r="I945" s="1"/>
       <c r="J945" s="1"/>
@@ -38603,7 +37823,6 @@
       <c r="D946" s="15"/>
       <c r="E946" s="15"/>
       <c r="F946" s="15"/>
-      <c r="G946" s="31"/>
       <c r="H946" s="1"/>
       <c r="I946" s="1"/>
       <c r="J946" s="1"/>
@@ -38626,7 +37845,6 @@
       <c r="D947" s="15"/>
       <c r="E947" s="15"/>
       <c r="F947" s="15"/>
-      <c r="G947" s="31"/>
       <c r="H947" s="1"/>
       <c r="I947" s="1"/>
       <c r="J947" s="1"/>
@@ -38649,7 +37867,6 @@
       <c r="D948" s="15"/>
       <c r="E948" s="15"/>
       <c r="F948" s="15"/>
-      <c r="G948" s="31"/>
       <c r="H948" s="1"/>
       <c r="I948" s="1"/>
       <c r="J948" s="1"/>
@@ -38672,7 +37889,6 @@
       <c r="D949" s="15"/>
       <c r="E949" s="15"/>
       <c r="F949" s="15"/>
-      <c r="G949" s="31"/>
       <c r="H949" s="1"/>
       <c r="I949" s="1"/>
       <c r="J949" s="1"/>
@@ -38695,7 +37911,6 @@
       <c r="D950" s="15"/>
       <c r="E950" s="15"/>
       <c r="F950" s="15"/>
-      <c r="G950" s="31"/>
       <c r="H950" s="1"/>
       <c r="I950" s="1"/>
       <c r="J950" s="1"/>
@@ -38718,7 +37933,6 @@
       <c r="D951" s="15"/>
       <c r="E951" s="15"/>
       <c r="F951" s="15"/>
-      <c r="G951" s="31"/>
       <c r="H951" s="1"/>
       <c r="I951" s="1"/>
       <c r="J951" s="1"/>
@@ -38741,7 +37955,6 @@
       <c r="D952" s="15"/>
       <c r="E952" s="15"/>
       <c r="F952" s="15"/>
-      <c r="G952" s="31"/>
       <c r="H952" s="1"/>
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
@@ -38764,7 +37977,6 @@
       <c r="D953" s="15"/>
       <c r="E953" s="15"/>
       <c r="F953" s="15"/>
-      <c r="G953" s="31"/>
       <c r="H953" s="1"/>
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
@@ -38787,7 +37999,6 @@
       <c r="D954" s="15"/>
       <c r="E954" s="15"/>
       <c r="F954" s="15"/>
-      <c r="G954" s="31"/>
       <c r="H954" s="1"/>
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
@@ -38810,7 +38021,6 @@
       <c r="D955" s="15"/>
       <c r="E955" s="15"/>
       <c r="F955" s="15"/>
-      <c r="G955" s="31"/>
       <c r="H955" s="1"/>
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
@@ -38833,7 +38043,6 @@
       <c r="D956" s="15"/>
       <c r="E956" s="15"/>
       <c r="F956" s="15"/>
-      <c r="G956" s="31"/>
       <c r="H956" s="1"/>
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
@@ -38856,7 +38065,6 @@
       <c r="D957" s="15"/>
       <c r="E957" s="15"/>
       <c r="F957" s="15"/>
-      <c r="G957" s="31"/>
       <c r="H957" s="1"/>
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
@@ -38879,7 +38087,6 @@
       <c r="D958" s="15"/>
       <c r="E958" s="15"/>
       <c r="F958" s="15"/>
-      <c r="G958" s="31"/>
       <c r="H958" s="1"/>
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
@@ -38902,7 +38109,6 @@
       <c r="D959" s="15"/>
       <c r="E959" s="15"/>
       <c r="F959" s="15"/>
-      <c r="G959" s="31"/>
       <c r="H959" s="1"/>
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
@@ -38925,7 +38131,6 @@
       <c r="D960" s="15"/>
       <c r="E960" s="15"/>
       <c r="F960" s="15"/>
-      <c r="G960" s="31"/>
       <c r="H960" s="1"/>
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
@@ -38948,7 +38153,6 @@
       <c r="D961" s="15"/>
       <c r="E961" s="15"/>
       <c r="F961" s="15"/>
-      <c r="G961" s="31"/>
       <c r="H961" s="1"/>
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
@@ -38971,7 +38175,6 @@
       <c r="D962" s="15"/>
       <c r="E962" s="15"/>
       <c r="F962" s="15"/>
-      <c r="G962" s="31"/>
       <c r="H962" s="1"/>
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
@@ -38994,7 +38197,6 @@
       <c r="D963" s="15"/>
       <c r="E963" s="15"/>
       <c r="F963" s="15"/>
-      <c r="G963" s="31"/>
       <c r="H963" s="1"/>
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
@@ -39017,7 +38219,6 @@
       <c r="D964" s="15"/>
       <c r="E964" s="15"/>
       <c r="F964" s="15"/>
-      <c r="G964" s="31"/>
       <c r="H964" s="1"/>
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
@@ -39040,7 +38241,6 @@
       <c r="D965" s="15"/>
       <c r="E965" s="15"/>
       <c r="F965" s="15"/>
-      <c r="G965" s="31"/>
       <c r="H965" s="1"/>
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
@@ -39063,7 +38263,6 @@
       <c r="D966" s="15"/>
       <c r="E966" s="15"/>
       <c r="F966" s="15"/>
-      <c r="G966" s="31"/>
       <c r="H966" s="1"/>
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
@@ -39086,7 +38285,6 @@
       <c r="D967" s="15"/>
       <c r="E967" s="15"/>
       <c r="F967" s="15"/>
-      <c r="G967" s="31"/>
       <c r="H967" s="1"/>
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
@@ -39109,7 +38307,6 @@
       <c r="D968" s="15"/>
       <c r="E968" s="15"/>
       <c r="F968" s="15"/>
-      <c r="G968" s="31"/>
       <c r="H968" s="1"/>
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
@@ -39132,7 +38329,6 @@
       <c r="D969" s="15"/>
       <c r="E969" s="15"/>
       <c r="F969" s="15"/>
-      <c r="G969" s="31"/>
       <c r="H969" s="1"/>
       <c r="I969" s="1"/>
       <c r="J969" s="1"/>
@@ -39155,7 +38351,6 @@
       <c r="D970" s="15"/>
       <c r="E970" s="15"/>
       <c r="F970" s="15"/>
-      <c r="G970" s="31"/>
       <c r="H970" s="1"/>
       <c r="I970" s="1"/>
       <c r="J970" s="1"/>
@@ -39178,7 +38373,6 @@
       <c r="D971" s="15"/>
       <c r="E971" s="15"/>
       <c r="F971" s="15"/>
-      <c r="G971" s="31"/>
       <c r="H971" s="1"/>
       <c r="I971" s="1"/>
       <c r="J971" s="1"/>
@@ -39201,7 +38395,6 @@
       <c r="D972" s="15"/>
       <c r="E972" s="15"/>
       <c r="F972" s="15"/>
-      <c r="G972" s="31"/>
       <c r="H972" s="1"/>
       <c r="I972" s="1"/>
       <c r="J972" s="1"/>
@@ -39224,7 +38417,6 @@
       <c r="D973" s="15"/>
       <c r="E973" s="15"/>
       <c r="F973" s="15"/>
-      <c r="G973" s="31"/>
       <c r="H973" s="1"/>
       <c r="I973" s="1"/>
       <c r="J973" s="1"/>
@@ -39247,7 +38439,6 @@
       <c r="D974" s="15"/>
       <c r="E974" s="15"/>
       <c r="F974" s="15"/>
-      <c r="G974" s="31"/>
       <c r="H974" s="1"/>
       <c r="I974" s="1"/>
       <c r="J974" s="1"/>
@@ -39270,7 +38461,6 @@
       <c r="D975" s="15"/>
       <c r="E975" s="15"/>
       <c r="F975" s="15"/>
-      <c r="G975" s="31"/>
       <c r="H975" s="1"/>
       <c r="I975" s="1"/>
       <c r="J975" s="1"/>
@@ -39293,7 +38483,6 @@
       <c r="D976" s="15"/>
       <c r="E976" s="15"/>
       <c r="F976" s="15"/>
-      <c r="G976" s="31"/>
       <c r="H976" s="1"/>
       <c r="I976" s="1"/>
       <c r="J976" s="1"/>
@@ -39316,7 +38505,6 @@
       <c r="D977" s="15"/>
       <c r="E977" s="15"/>
       <c r="F977" s="15"/>
-      <c r="G977" s="31"/>
       <c r="H977" s="1"/>
       <c r="I977" s="1"/>
       <c r="J977" s="1"/>
@@ -39339,7 +38527,6 @@
       <c r="D978" s="15"/>
       <c r="E978" s="15"/>
       <c r="F978" s="15"/>
-      <c r="G978" s="31"/>
       <c r="H978" s="1"/>
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
@@ -39362,7 +38549,6 @@
       <c r="D979" s="15"/>
       <c r="E979" s="15"/>
       <c r="F979" s="15"/>
-      <c r="G979" s="31"/>
       <c r="H979" s="1"/>
       <c r="I979" s="1"/>
       <c r="J979" s="1"/>
@@ -39385,7 +38571,6 @@
       <c r="D980" s="15"/>
       <c r="E980" s="15"/>
       <c r="F980" s="15"/>
-      <c r="G980" s="31"/>
       <c r="H980" s="1"/>
       <c r="I980" s="1"/>
       <c r="J980" s="1"/>
@@ -39408,7 +38593,6 @@
       <c r="D981" s="15"/>
       <c r="E981" s="15"/>
       <c r="F981" s="15"/>
-      <c r="G981" s="31"/>
       <c r="H981" s="1"/>
       <c r="I981" s="1"/>
       <c r="J981" s="1"/>
@@ -39431,7 +38615,6 @@
       <c r="D982" s="15"/>
       <c r="E982" s="15"/>
       <c r="F982" s="15"/>
-      <c r="G982" s="31"/>
       <c r="H982" s="1"/>
       <c r="I982" s="1"/>
       <c r="J982" s="1"/>
@@ -39454,7 +38637,6 @@
       <c r="D983" s="15"/>
       <c r="E983" s="15"/>
       <c r="F983" s="15"/>
-      <c r="G983" s="31"/>
       <c r="H983" s="1"/>
       <c r="I983" s="1"/>
       <c r="J983" s="1"/>
@@ -39477,7 +38659,6 @@
       <c r="D984" s="15"/>
       <c r="E984" s="15"/>
       <c r="F984" s="15"/>
-      <c r="G984" s="31"/>
       <c r="H984" s="1"/>
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
@@ -39500,7 +38681,6 @@
       <c r="D985" s="15"/>
       <c r="E985" s="15"/>
       <c r="F985" s="15"/>
-      <c r="G985" s="31"/>
       <c r="H985" s="1"/>
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
@@ -39523,7 +38703,6 @@
       <c r="D986" s="15"/>
       <c r="E986" s="15"/>
       <c r="F986" s="15"/>
-      <c r="G986" s="31"/>
       <c r="H986" s="1"/>
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
@@ -39546,7 +38725,6 @@
       <c r="D987" s="15"/>
       <c r="E987" s="15"/>
       <c r="F987" s="15"/>
-      <c r="G987" s="31"/>
       <c r="H987" s="1"/>
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
@@ -39569,7 +38747,6 @@
       <c r="D988" s="15"/>
       <c r="E988" s="15"/>
       <c r="F988" s="15"/>
-      <c r="G988" s="31"/>
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
@@ -39592,7 +38769,6 @@
       <c r="D989" s="15"/>
       <c r="E989" s="15"/>
       <c r="F989" s="15"/>
-      <c r="G989" s="31"/>
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
@@ -39615,7 +38791,6 @@
       <c r="D990" s="15"/>
       <c r="E990" s="15"/>
       <c r="F990" s="15"/>
-      <c r="G990" s="31"/>
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
@@ -39638,7 +38813,6 @@
       <c r="D991" s="15"/>
       <c r="E991" s="15"/>
       <c r="F991" s="15"/>
-      <c r="G991" s="31"/>
       <c r="H991" s="1"/>
       <c r="I991" s="1"/>
       <c r="J991" s="1"/>
@@ -39661,7 +38835,6 @@
       <c r="D992" s="15"/>
       <c r="E992" s="15"/>
       <c r="F992" s="15"/>
-      <c r="G992" s="31"/>
       <c r="H992" s="1"/>
       <c r="I992" s="1"/>
       <c r="J992" s="1"/>
@@ -39684,7 +38857,6 @@
       <c r="D993" s="15"/>
       <c r="E993" s="15"/>
       <c r="F993" s="15"/>
-      <c r="G993" s="31"/>
       <c r="H993" s="1"/>
       <c r="I993" s="1"/>
       <c r="J993" s="1"/>
@@ -39707,7 +38879,6 @@
       <c r="D994" s="15"/>
       <c r="E994" s="15"/>
       <c r="F994" s="15"/>
-      <c r="G994" s="31"/>
       <c r="H994" s="1"/>
       <c r="I994" s="1"/>
       <c r="J994" s="1"/>
@@ -39730,7 +38901,6 @@
       <c r="D995" s="15"/>
       <c r="E995" s="15"/>
       <c r="F995" s="15"/>
-      <c r="G995" s="31"/>
       <c r="H995" s="1"/>
       <c r="I995" s="1"/>
       <c r="J995" s="1"/>
@@ -39753,7 +38923,6 @@
       <c r="D996" s="15"/>
       <c r="E996" s="15"/>
       <c r="F996" s="15"/>
-      <c r="G996" s="31"/>
       <c r="H996" s="1"/>
       <c r="I996" s="1"/>
       <c r="J996" s="1"/>
@@ -39776,7 +38945,6 @@
       <c r="D997" s="15"/>
       <c r="E997" s="15"/>
       <c r="F997" s="15"/>
-      <c r="G997" s="31"/>
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
@@ -39799,7 +38967,6 @@
       <c r="D998" s="15"/>
       <c r="E998" s="15"/>
       <c r="F998" s="15"/>
-      <c r="G998" s="31"/>
       <c r="H998" s="1"/>
       <c r="I998" s="1"/>
       <c r="J998" s="1"/>
@@ -39822,7 +38989,6 @@
       <c r="D999" s="15"/>
       <c r="E999" s="15"/>
       <c r="F999" s="15"/>
-      <c r="G999" s="31"/>
       <c r="H999" s="1"/>
       <c r="I999" s="1"/>
       <c r="J999" s="1"/>
@@ -39845,7 +39011,6 @@
       <c r="D1000" s="15"/>
       <c r="E1000" s="15"/>
       <c r="F1000" s="15"/>
-      <c r="G1000" s="31"/>
       <c r="H1000" s="1"/>
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
@@ -39868,7 +39033,6 @@
       <c r="D1001" s="15"/>
       <c r="E1001" s="15"/>
       <c r="F1001" s="15"/>
-      <c r="G1001" s="31"/>
       <c r="H1001" s="1"/>
       <c r="I1001" s="1"/>
       <c r="J1001" s="1"/>
@@ -39891,7 +39055,6 @@
       <c r="D1002" s="15"/>
       <c r="E1002" s="15"/>
       <c r="F1002" s="15"/>
-      <c r="G1002" s="31"/>
       <c r="H1002" s="1"/>
       <c r="I1002" s="1"/>
       <c r="J1002" s="1"/>
@@ -39914,7 +39077,6 @@
       <c r="D1003" s="15"/>
       <c r="E1003" s="15"/>
       <c r="F1003" s="15"/>
-      <c r="G1003" s="31"/>
       <c r="H1003" s="1"/>
       <c r="I1003" s="1"/>
       <c r="J1003" s="1"/>
@@ -39937,7 +39099,6 @@
       <c r="D1004" s="15"/>
       <c r="E1004" s="15"/>
       <c r="F1004" s="15"/>
-      <c r="G1004" s="31"/>
       <c r="H1004" s="1"/>
       <c r="I1004" s="1"/>
       <c r="J1004" s="1"/>
@@ -39960,7 +39121,6 @@
       <c r="D1005" s="15"/>
       <c r="E1005" s="15"/>
       <c r="F1005" s="15"/>
-      <c r="G1005" s="31"/>
       <c r="H1005" s="1"/>
       <c r="I1005" s="1"/>
       <c r="J1005" s="1"/>
@@ -39983,7 +39143,6 @@
       <c r="D1006" s="15"/>
       <c r="E1006" s="15"/>
       <c r="F1006" s="15"/>
-      <c r="G1006" s="31"/>
       <c r="H1006" s="1"/>
       <c r="I1006" s="1"/>
       <c r="J1006" s="1"/>
@@ -40006,7 +39165,6 @@
       <c r="D1007" s="15"/>
       <c r="E1007" s="15"/>
       <c r="F1007" s="15"/>
-      <c r="G1007" s="31"/>
       <c r="H1007" s="1"/>
       <c r="I1007" s="1"/>
       <c r="J1007" s="1"/>
@@ -40029,7 +39187,6 @@
       <c r="D1008" s="15"/>
       <c r="E1008" s="15"/>
       <c r="F1008" s="15"/>
-      <c r="G1008" s="31"/>
       <c r="H1008" s="1"/>
       <c r="I1008" s="1"/>
       <c r="J1008" s="1"/>
@@ -40052,7 +39209,6 @@
       <c r="D1009" s="15"/>
       <c r="E1009" s="15"/>
       <c r="F1009" s="15"/>
-      <c r="G1009" s="31"/>
       <c r="H1009" s="1"/>
       <c r="I1009" s="1"/>
       <c r="J1009" s="1"/>
@@ -40075,7 +39231,6 @@
       <c r="D1010" s="15"/>
       <c r="E1010" s="15"/>
       <c r="F1010" s="15"/>
-      <c r="G1010" s="31"/>
       <c r="H1010" s="1"/>
       <c r="I1010" s="1"/>
       <c r="J1010" s="1"/>
@@ -40098,7 +39253,6 @@
       <c r="D1011" s="15"/>
       <c r="E1011" s="15"/>
       <c r="F1011" s="15"/>
-      <c r="G1011" s="31"/>
       <c r="H1011" s="1"/>
       <c r="I1011" s="1"/>
       <c r="J1011" s="1"/>
